--- a/resources/btc-rsi.xlsx
+++ b/resources/btc-rsi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomsr\Documents\Code\production\pypi\rolling-ta\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095546C8-3A54-4683-A148-6BD79270EC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53451E81-4146-4DAA-B2BA-AAD5F7A402F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28590" yWindow="-9795" windowWidth="16410" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -367,18 +367,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I200"/>
+  <dimension ref="A1:G200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1515669120</v>
       </c>
@@ -391,8 +392,17 @@
       <c r="D1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1515669180</v>
       </c>
@@ -407,8 +417,17 @@
         <f>IF(B2&lt;B1,B1-B2,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1515669240</v>
       </c>
@@ -423,8 +442,17 @@
         <f t="shared" ref="D3:D66" si="1">IF(B3&lt;B2,B2-B3,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1515669300</v>
       </c>
@@ -439,8 +467,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1515669360</v>
       </c>
@@ -455,8 +492,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1515669420</v>
       </c>
@@ -471,8 +517,17 @@
         <f t="shared" si="1"/>
         <v>72.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1515669480</v>
       </c>
@@ -487,8 +542,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1515669540</v>
       </c>
@@ -503,8 +567,17 @@
         <f t="shared" si="1"/>
         <v>44.799999999999272</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1515669600</v>
       </c>
@@ -519,8 +592,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1515669660</v>
       </c>
@@ -535,8 +617,17 @@
         <f t="shared" si="1"/>
         <v>37.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1515669720</v>
       </c>
@@ -551,8 +642,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1515669780</v>
       </c>
@@ -567,8 +667,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1515669840</v>
       </c>
@@ -583,8 +692,17 @@
         <f t="shared" si="1"/>
         <v>0.2000000000007276</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1515669900</v>
       </c>
@@ -599,8 +717,17 @@
         <f t="shared" si="1"/>
         <v>26.700000000000728</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1515669960</v>
       </c>
@@ -624,19 +751,11 @@
         <v>13.714285714285714</v>
       </c>
       <c r="G15">
-        <f>E15/F15</f>
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="H15">
         <f>(100 * E15) / (E15 + F15)</f>
         <v>48.936170212765958</v>
       </c>
-      <c r="I15">
-        <f>100-(100/(G15+1))</f>
-        <v>48.936170212765958</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1515670020</v>
       </c>
@@ -660,19 +779,11 @@
         <v>12.73469387755102</v>
       </c>
       <c r="G16">
-        <f t="shared" ref="G16:G79" si="2">E16/F16</f>
-        <v>1.0205929487179508</v>
-      </c>
-      <c r="H16">
-        <f t="shared" ref="H16:H79" si="3">(100 * E16) / (E16 + F16)</f>
+        <f>(100 * E16) / (E16 + F16)</f>
         <v>50.509576872744624</v>
       </c>
-      <c r="I16">
-        <f t="shared" ref="I16:I79" si="4">100-(100/(G16+1))</f>
-        <v>50.509576872744631</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1515670080</v>
       </c>
@@ -688,27 +799,19 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="E17:E80" si="5">((E16*13)+C17)/14</f>
+        <f t="shared" ref="E17:E80" si="2">((E16*13)+C17)/14</f>
         <v>12.068586005830927</v>
       </c>
       <c r="F17">
-        <f t="shared" ref="F17:F80" si="6">((F16*13)+D17)/14</f>
+        <f t="shared" ref="F17:F80" si="3">((F16*13)+D17)/14</f>
         <v>11.825072886297376</v>
       </c>
       <c r="G17">
-        <f t="shared" si="2"/>
-        <v>1.0205929487179508</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="3"/>
+        <f>(100 * E17) / (E17 + F17)</f>
         <v>50.509576872744631</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="4"/>
-        <v>50.509576872744631</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1515670140</v>
       </c>
@@ -724,27 +827,19 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>11.770829862557264</v>
       </c>
       <c r="F18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>10.98042482299042</v>
       </c>
       <c r="G18">
-        <f t="shared" si="2"/>
-        <v>1.0719831019572141</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="3"/>
+        <f>(100 * E18) / (E18 + F18)</f>
         <v>51.737058132598136</v>
       </c>
-      <c r="I18">
-        <f t="shared" si="4"/>
-        <v>51.737058132598143</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1515670200</v>
       </c>
@@ -760,27 +855,19 @@
         <v>37.899999999999636</v>
       </c>
       <c r="E19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>10.930056300946031</v>
       </c>
       <c r="F19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>12.90325162134822</v>
       </c>
       <c r="G19">
-        <f t="shared" si="2"/>
-        <v>0.8470776686135788</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="3"/>
+        <f>(100 * E19) / (E19 + F19)</f>
         <v>45.86042498415334</v>
       </c>
-      <c r="I19">
-        <f t="shared" si="4"/>
-        <v>45.860424984153347</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1515670260</v>
       </c>
@@ -796,27 +883,19 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>10.1493379937356</v>
       </c>
       <c r="F20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>11.981590791251918</v>
       </c>
       <c r="G20">
-        <f t="shared" si="2"/>
-        <v>0.8470776686135788</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="3"/>
+        <f>(100 * E20) / (E20 + F20)</f>
         <v>45.860424984153347</v>
       </c>
-      <c r="I20">
-        <f t="shared" si="4"/>
-        <v>45.860424984153347</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1515670320</v>
       </c>
@@ -832,27 +911,19 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>9.4243852798973418</v>
       </c>
       <c r="F21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>11.125762877591066</v>
       </c>
       <c r="G21">
-        <f t="shared" si="2"/>
-        <v>0.8470776686135788</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="3"/>
+        <f>(100 * E21) / (E21 + F21)</f>
         <v>45.860424984153347</v>
       </c>
-      <c r="I21">
-        <f t="shared" si="4"/>
-        <v>45.860424984153347</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1515670380</v>
       </c>
@@ -868,27 +939,19 @@
         <v>45.300000000001091</v>
       </c>
       <c r="E22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>8.7512149027618182</v>
       </c>
       <c r="F22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>13.566779814906068</v>
       </c>
       <c r="G22">
-        <f t="shared" si="2"/>
-        <v>0.64504731573418028</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="3"/>
+        <f>(100 * E22) / (E22 + F22)</f>
         <v>39.211474926257509</v>
       </c>
-      <c r="I22">
-        <f t="shared" si="4"/>
-        <v>39.211474926257509</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1515670440</v>
       </c>
@@ -904,27 +967,19 @@
         <v>17.399999999999636</v>
       </c>
       <c r="E23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>8.1261281239931176</v>
       </c>
       <c r="F23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>13.840581256698467</v>
       </c>
       <c r="G23">
-        <f t="shared" si="2"/>
-        <v>0.5871233276463943</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="3"/>
+        <f>(100 * E23) / (E23 + F23)</f>
         <v>36.992924079634186</v>
       </c>
-      <c r="I23">
-        <f t="shared" si="4"/>
-        <v>36.992924079634179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1515670500</v>
       </c>
@@ -940,27 +995,19 @@
         <v>11</v>
       </c>
       <c r="E24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>7.5456904008507522</v>
       </c>
       <c r="F24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>13.637682595505719</v>
       </c>
       <c r="G24">
-        <f t="shared" si="2"/>
-        <v>0.55329711246817148</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="3"/>
+        <f>(100 * E24) / (E24 + F24)</f>
         <v>35.620816392878545</v>
       </c>
-      <c r="I24">
-        <f t="shared" si="4"/>
-        <v>35.620816392878538</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1515670560</v>
       </c>
@@ -976,27 +1023,19 @@
         <v>39.5</v>
       </c>
       <c r="E25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>7.0067125150756988</v>
       </c>
       <c r="F25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>15.484990981541026</v>
       </c>
       <c r="G25">
-        <f t="shared" si="2"/>
-        <v>0.45248411984405362</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="3"/>
+        <f>(100 * E25) / (E25 + F25)</f>
         <v>31.15243145602409</v>
       </c>
-      <c r="I25">
-        <f t="shared" si="4"/>
-        <v>31.15243145602409</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1515670620</v>
       </c>
@@ -1012,27 +1051,19 @@
         <v>0.1000000000003638</v>
       </c>
       <c r="E26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>6.5062330497131482</v>
       </c>
       <c r="F26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>14.386063054288121</v>
       </c>
       <c r="G26">
-        <f t="shared" si="2"/>
-        <v>0.45225945591652367</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="3"/>
+        <f>(100 * E26) / (E26 + F26)</f>
         <v>31.141780766102976</v>
       </c>
-      <c r="I26">
-        <f t="shared" si="4"/>
-        <v>31.141780766102968</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1515670680</v>
       </c>
@@ -1048,27 +1079,19 @@
         <v>10.899999999999636</v>
       </c>
       <c r="E27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>6.0415021175907802</v>
       </c>
       <c r="F27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>14.137058550410371</v>
       </c>
       <c r="G27">
-        <f t="shared" si="2"/>
-        <v>0.42735213241480191</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="3"/>
+        <f>(100 * E27) / (E27 + F27)</f>
         <v>29.940203451534089</v>
       </c>
-      <c r="I27">
-        <f t="shared" si="4"/>
-        <v>29.940203451534089</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1515670740</v>
       </c>
@@ -1084,27 +1107,19 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>7.3313948234771784</v>
       </c>
       <c r="F28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>13.127268653952488</v>
       </c>
       <c r="G28">
-        <f t="shared" si="2"/>
-        <v>0.55848592854613133</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="3"/>
+        <f>(100 * E28) / (E28 + F28)</f>
         <v>35.835160158752764</v>
       </c>
-      <c r="I28">
-        <f t="shared" si="4"/>
-        <v>35.835160158752757</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1515670800</v>
       </c>
@@ -1120,27 +1135,19 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>10.722009478943042</v>
       </c>
       <c r="F29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>12.189606607241597</v>
       </c>
       <c r="G29">
-        <f t="shared" si="2"/>
-        <v>0.87960258476047248</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="3"/>
+        <f>(100 * E29) / (E29 + F29)</f>
         <v>46.797264054229039</v>
       </c>
-      <c r="I29">
-        <f t="shared" si="4"/>
-        <v>46.797264054229039</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1515670860</v>
       </c>
@@ -1156,27 +1163,19 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>12.249008801875707</v>
       </c>
       <c r="F30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>11.318920421010054</v>
       </c>
       <c r="G30">
-        <f t="shared" si="2"/>
-        <v>1.0821711211202822</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="3"/>
+        <f>(100 * E30) / (E30 + F30)</f>
         <v>51.973207684200119</v>
       </c>
-      <c r="I30">
-        <f t="shared" si="4"/>
-        <v>51.973207684200119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1515670920</v>
       </c>
@@ -1192,27 +1191,19 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>12.80979388745604</v>
       </c>
       <c r="F31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>10.510426105223621</v>
       </c>
       <c r="G31">
-        <f t="shared" si="2"/>
-        <v>1.2187701772708954</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="3"/>
+        <f>(100 * E31) / (E31 + F31)</f>
         <v>54.929987330638824</v>
       </c>
-      <c r="I31">
-        <f t="shared" si="4"/>
-        <v>54.929987330638824</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1515670980</v>
       </c>
@@ -1228,27 +1219,19 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>16.087665752637804</v>
       </c>
       <c r="F32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>9.7596813834219329</v>
       </c>
       <c r="G32">
-        <f t="shared" si="2"/>
-        <v>1.6483802206867901</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="3"/>
+        <f>(100 * E32) / (E32 + F32)</f>
         <v>62.241071271077708</v>
       </c>
-      <c r="I32">
-        <f t="shared" si="4"/>
-        <v>62.241071271077708</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1515671040</v>
       </c>
@@ -1264,27 +1247,19 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>19.981403913163572</v>
       </c>
       <c r="F33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>9.0625612846060797</v>
       </c>
       <c r="G33">
-        <f t="shared" si="2"/>
-        <v>2.2048296597016721</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="3"/>
+        <f>(100 * E33) / (E33 + F33)</f>
         <v>68.797093568676999</v>
       </c>
-      <c r="I33">
-        <f t="shared" si="4"/>
-        <v>68.797093568676999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1515671100</v>
       </c>
@@ -1300,27 +1275,19 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>19.189875062223422</v>
       </c>
       <c r="F34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>8.4152354785627885</v>
       </c>
       <c r="G34">
-        <f t="shared" si="2"/>
-        <v>2.280372915423253</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="3"/>
+        <f>(100 * E34) / (E34 + F34)</f>
         <v>69.515661000055118</v>
       </c>
-      <c r="I34">
-        <f t="shared" si="4"/>
-        <v>69.515661000055104</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1515671160</v>
       </c>
@@ -1336,27 +1303,19 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>17.819169700636035</v>
       </c>
       <c r="F35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>7.8141472300940178</v>
       </c>
       <c r="G35">
-        <f t="shared" si="2"/>
-        <v>2.2803729154232535</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="3"/>
+        <f>(100 * E35) / (E35 + F35)</f>
         <v>69.515661000055104</v>
       </c>
-      <c r="I35">
-        <f t="shared" si="4"/>
-        <v>69.515661000055104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1515671220</v>
       </c>
@@ -1372,27 +1331,19 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>18.86780043630489</v>
       </c>
       <c r="F36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>7.2559938565158735</v>
       </c>
       <c r="G36">
-        <f t="shared" si="2"/>
-        <v>2.6003054591014609</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="3"/>
+        <f>(100 * E36) / (E36 + F36)</f>
         <v>72.224578959764912</v>
       </c>
-      <c r="I36">
-        <f t="shared" si="4"/>
-        <v>72.224578959764898</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1515671280</v>
       </c>
@@ -1408,27 +1359,19 @@
         <v>1.7000000000007276</v>
       </c>
       <c r="E37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>17.520100405140255</v>
       </c>
       <c r="F37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>6.8591371524790778</v>
       </c>
       <c r="G37">
-        <f t="shared" si="2"/>
-        <v>2.5542717714586036</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="3"/>
+        <f>(100 * E37) / (E37 + F37)</f>
         <v>71.864841399294022</v>
       </c>
-      <c r="I37">
-        <f t="shared" si="4"/>
-        <v>71.864841399294022</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1515671340</v>
       </c>
@@ -1444,27 +1387,19 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>17.275807519058834</v>
       </c>
       <c r="F38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>6.3691987844448574</v>
       </c>
       <c r="G38">
-        <f t="shared" si="2"/>
-        <v>2.7123988595316861</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="3"/>
+        <f>(100 * E38) / (E38 + F38)</f>
         <v>73.063239219770992</v>
       </c>
-      <c r="I38">
-        <f t="shared" si="4"/>
-        <v>73.063239219770992</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1515671400</v>
       </c>
@@ -1480,27 +1415,19 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>16.04182126769749</v>
       </c>
       <c r="F39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>5.9142560141273677</v>
       </c>
       <c r="G39">
-        <f t="shared" si="2"/>
-        <v>2.7123988595316866</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="3"/>
+        <f>(100 * E39) / (E39 + F39)</f>
         <v>73.063239219771006</v>
       </c>
-      <c r="I39">
-        <f t="shared" si="4"/>
-        <v>73.063239219771006</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1515671460</v>
       </c>
@@ -1516,27 +1443,19 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>15.68169117714767</v>
       </c>
       <c r="F40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>5.491809155975413</v>
       </c>
       <c r="G40">
-        <f t="shared" si="2"/>
-        <v>2.8554690688923636</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="3"/>
+        <f>(100 * E40) / (E40 + F40)</f>
         <v>74.062818761316379</v>
       </c>
-      <c r="I40">
-        <f t="shared" si="4"/>
-        <v>74.062818761316379</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1515671520</v>
       </c>
@@ -1552,27 +1471,19 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>16.161570378779953</v>
       </c>
       <c r="F41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>5.0995370734057408</v>
       </c>
       <c r="G41">
-        <f t="shared" si="2"/>
-        <v>3.1692230385112978</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="3"/>
+        <f>(100 * E41) / (E41 + F41)</f>
         <v>76.01471567332915</v>
       </c>
-      <c r="I41">
-        <f t="shared" si="4"/>
-        <v>76.014715673329164</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1515671580</v>
       </c>
@@ -1588,27 +1499,19 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>15.150029637438527</v>
       </c>
       <c r="F42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>4.7352844253053306</v>
       </c>
       <c r="G42">
-        <f t="shared" si="2"/>
-        <v>3.1993916894361956</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="3"/>
+        <f>(100 * E42) / (E42 + F42)</f>
         <v>76.187027218357457</v>
       </c>
-      <c r="I42">
-        <f t="shared" si="4"/>
-        <v>76.187027218357457</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1515671640</v>
       </c>
@@ -1624,27 +1527,19 @@
         <v>8.3999999999996362</v>
       </c>
       <c r="E43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>14.067884663335775</v>
       </c>
       <c r="F43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>4.9970498234977816</v>
       </c>
       <c r="G43">
-        <f t="shared" si="2"/>
-        <v>2.8152380224795692</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="3"/>
+        <f>(100 * E43) / (E43 + F43)</f>
         <v>73.789315526110016</v>
       </c>
-      <c r="I43">
-        <f t="shared" si="4"/>
-        <v>73.789315526110016</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1515671700</v>
       </c>
@@ -1660,27 +1555,19 @@
         <v>72.899999999999636</v>
       </c>
       <c r="E44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>13.063035758811791</v>
       </c>
       <c r="F44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>9.8472605503907715</v>
       </c>
       <c r="G44">
-        <f t="shared" si="2"/>
-        <v>1.326565463761737</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="3"/>
+        <f>(100 * E44) / (E44 + F44)</f>
         <v>57.018187728827648</v>
       </c>
-      <c r="I44">
-        <f t="shared" si="4"/>
-        <v>57.018187728827655</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1515671760</v>
       </c>
@@ -1696,27 +1583,19 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>12.837104633182351</v>
       </c>
       <c r="F45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>9.143884796791431</v>
       </c>
       <c r="G45">
-        <f t="shared" si="2"/>
-        <v>1.4039005213284033</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="3"/>
+        <f>(100 * E45) / (E45 + F45)</f>
         <v>58.400940840621942</v>
       </c>
-      <c r="I45">
-        <f t="shared" si="4"/>
-        <v>58.400940840621942</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1515671820</v>
       </c>
@@ -1732,27 +1611,19 @@
         <v>11.399999999999636</v>
       </c>
       <c r="E46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>11.920168587955041</v>
       </c>
       <c r="F46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>9.3050358827348738</v>
       </c>
       <c r="G46">
-        <f t="shared" si="2"/>
-        <v>1.2810448813069537</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="3"/>
+        <f>(100 * E46) / (E46 + F46)</f>
         <v>56.160441725853396</v>
       </c>
-      <c r="I46">
-        <f t="shared" si="4"/>
-        <v>56.160441725853403</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1515671880</v>
       </c>
@@ -1768,27 +1639,19 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>12.297299403101032</v>
       </c>
       <c r="F47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>8.6403904625395249</v>
       </c>
       <c r="G47">
-        <f t="shared" si="2"/>
-        <v>1.4232342226217742</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="3"/>
+        <f>(100 * E47) / (E47 + F47)</f>
         <v>58.732837681779351</v>
       </c>
-      <c r="I47">
-        <f t="shared" si="4"/>
-        <v>58.732837681779344</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1515671940</v>
       </c>
@@ -1804,27 +1667,19 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>12.247492302879555</v>
       </c>
       <c r="F48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>8.0232197152152729</v>
       </c>
       <c r="G48">
-        <f t="shared" si="2"/>
-        <v>1.5265059088003474</v>
-      </c>
-      <c r="H48">
-        <f t="shared" si="3"/>
+        <f>(100 * E48) / (E48 + F48)</f>
         <v>60.419645308693276</v>
       </c>
-      <c r="I48">
-        <f t="shared" si="4"/>
-        <v>60.419645308693269</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1515672000</v>
       </c>
@@ -1840,27 +1695,19 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>12.086957138388158</v>
       </c>
       <c r="F49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>7.4501325926998963</v>
       </c>
       <c r="G49">
-        <f t="shared" si="2"/>
-        <v>1.6223814795231579</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="3"/>
+        <f>(100 * E49) / (E49 + F49)</f>
         <v>61.866722755308828</v>
       </c>
-      <c r="I49">
-        <f t="shared" si="4"/>
-        <v>61.866722755308828</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1515672060</v>
       </c>
@@ -1876,27 +1723,19 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>12.195031628503315</v>
       </c>
       <c r="F50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>6.9179802646499038</v>
       </c>
       <c r="G50">
-        <f t="shared" si="2"/>
-        <v>1.7628023154125703</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="3"/>
+        <f>(100 * E50) / (E50 + F50)</f>
         <v>63.804866007915237</v>
       </c>
-      <c r="I50">
-        <f t="shared" si="4"/>
-        <v>63.804866007915244</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1515672120</v>
       </c>
@@ -1912,27 +1751,19 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>11.523957940753027</v>
       </c>
       <c r="F51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>6.4238388171749108</v>
       </c>
       <c r="G51">
-        <f t="shared" si="2"/>
-        <v>1.7939363468993541</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="3"/>
+        <f>(100 * E51) / (E51 + F51)</f>
         <v>64.208203915963338</v>
       </c>
-      <c r="I51">
-        <f t="shared" si="4"/>
-        <v>64.208203915963338</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1515672180</v>
       </c>
@@ -1948,27 +1779,19 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>15.693675230699213</v>
       </c>
       <c r="F52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>5.9649931873767033</v>
       </c>
       <c r="G52">
-        <f t="shared" si="2"/>
-        <v>2.6309628087942563</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="3"/>
+        <f>(100 * E52) / (E52 + F52)</f>
         <v>72.459095488998614</v>
       </c>
-      <c r="I52">
-        <f t="shared" si="4"/>
-        <v>72.459095488998614</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1515672240</v>
       </c>
@@ -1984,27 +1807,19 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>15.90841271422075</v>
       </c>
       <c r="F53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>5.538922245421225</v>
       </c>
       <c r="G53">
-        <f t="shared" si="2"/>
-        <v>2.8721133840381152</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="3"/>
+        <f>(100 * E53) / (E53 + F53)</f>
         <v>74.174309974437563</v>
       </c>
-      <c r="I53">
-        <f t="shared" si="4"/>
-        <v>74.174309974437563</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1515672300</v>
       </c>
@@ -2020,27 +1835,19 @@
         <v>1.8999999999996362</v>
       </c>
       <c r="E54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>14.77209752034784</v>
       </c>
       <c r="F54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>5.278999227891112</v>
       </c>
       <c r="G54">
-        <f t="shared" si="2"/>
-        <v>2.7982761282291553</v>
-      </c>
-      <c r="H54">
-        <f t="shared" si="3"/>
+        <f>(100 * E54) / (E54 + F54)</f>
         <v>73.672266937943164</v>
       </c>
-      <c r="I54">
-        <f t="shared" si="4"/>
-        <v>73.672266937943149</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1515672360</v>
       </c>
@@ -2056,27 +1863,19 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>14.666947697465799</v>
       </c>
       <c r="F55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>4.9019278544703182</v>
       </c>
       <c r="G55">
-        <f t="shared" si="2"/>
-        <v>2.9920774301258355</v>
-      </c>
-      <c r="H55">
-        <f t="shared" si="3"/>
+        <f>(100 * E55) / (E55 + F55)</f>
         <v>74.950385670037491</v>
       </c>
-      <c r="I55">
-        <f t="shared" si="4"/>
-        <v>74.950385670037491</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1515672420</v>
       </c>
@@ -2092,27 +1891,19 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>14.069308576218321</v>
       </c>
       <c r="F56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>4.5517901505795813</v>
       </c>
       <c r="G56">
-        <f t="shared" si="2"/>
-        <v>3.0909396327128285</v>
-      </c>
-      <c r="H56">
-        <f t="shared" si="3"/>
+        <f>(100 * E56) / (E56 + F56)</f>
         <v>75.555738050896892</v>
       </c>
-      <c r="I56">
-        <f t="shared" si="4"/>
-        <v>75.555738050896906</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1515672480</v>
       </c>
@@ -2128,27 +1919,19 @@
         <v>12.600000000000364</v>
       </c>
       <c r="E57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>13.064357963631297</v>
       </c>
       <c r="F57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>5.1266622826810657</v>
       </c>
       <c r="G57">
-        <f t="shared" si="2"/>
-        <v>2.5483164763486417</v>
-      </c>
-      <c r="H57">
-        <f t="shared" si="3"/>
+        <f>(100 * E57) / (E57 + F57)</f>
         <v>71.817620929093678</v>
       </c>
-      <c r="I57">
-        <f t="shared" si="4"/>
-        <v>71.817620929093692</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1515672540</v>
       </c>
@@ -2164,27 +1947,19 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>12.588332394800464</v>
       </c>
       <c r="F58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>4.7604721196324178</v>
       </c>
       <c r="G58">
-        <f t="shared" si="2"/>
-        <v>2.6443453671087727</v>
-      </c>
-      <c r="H58">
-        <f t="shared" si="3"/>
+        <f>(100 * E58) / (E58 + F58)</f>
         <v>72.560229636156961</v>
       </c>
-      <c r="I58">
-        <f t="shared" si="4"/>
-        <v>72.560229636156947</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1515672600</v>
       </c>
@@ -2200,27 +1975,19 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>16.332022938029002</v>
       </c>
       <c r="F59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>4.4204383968015311</v>
       </c>
       <c r="G59">
-        <f t="shared" si="2"/>
-        <v>3.6946613597977662</v>
-      </c>
-      <c r="H59">
-        <f t="shared" si="3"/>
+        <f>(100 * E59) / (E59 + F59)</f>
         <v>78.699209093899839</v>
       </c>
-      <c r="I59">
-        <f t="shared" si="4"/>
-        <v>78.699209093899853</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1515672660</v>
       </c>
@@ -2236,27 +2003,19 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>18.444021299598337</v>
       </c>
       <c r="F60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>4.1046927970299931</v>
       </c>
       <c r="G60">
-        <f t="shared" si="2"/>
-        <v>4.4933987052438518</v>
-      </c>
-      <c r="H60">
-        <f t="shared" si="3"/>
+        <f>(100 * E60) / (E60 + F60)</f>
         <v>81.796333132611935</v>
       </c>
-      <c r="I60">
-        <f t="shared" si="4"/>
-        <v>81.796333132611935</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1515672720</v>
       </c>
@@ -2272,27 +2031,19 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>20.026591206769911</v>
       </c>
       <c r="F61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3.8115004543849937</v>
       </c>
       <c r="G61">
-        <f t="shared" si="2"/>
-        <v>5.2542539208489512</v>
-      </c>
-      <c r="H61">
-        <f t="shared" si="3"/>
+        <f>(100 * E61) / (E61 + F61)</f>
         <v>84.0108826303576</v>
       </c>
-      <c r="I61">
-        <f t="shared" si="4"/>
-        <v>84.010882630357614</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1515672780</v>
       </c>
@@ -2308,27 +2059,19 @@
         <v>72.700000000000728</v>
       </c>
       <c r="E62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>18.596120406286349</v>
       </c>
       <c r="F62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>8.7321075647861175</v>
       </c>
       <c r="G62">
-        <f t="shared" si="2"/>
-        <v>2.1296256680665202</v>
-      </c>
-      <c r="H62">
-        <f t="shared" si="3"/>
+        <f>(100 * E62) / (E62 + F62)</f>
         <v>68.04729683157926</v>
       </c>
-      <c r="I62">
-        <f t="shared" si="4"/>
-        <v>68.047296831579246</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1515672840</v>
       </c>
@@ -2344,27 +2087,19 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>19.774968948694493</v>
       </c>
       <c r="F63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>8.1083855958728233</v>
       </c>
       <c r="G63">
-        <f t="shared" si="2"/>
-        <v>2.4388293717506446</v>
-      </c>
-      <c r="H63">
-        <f t="shared" si="3"/>
+        <f>(100 * E63) / (E63 + F63)</f>
         <v>70.920336780451578</v>
       </c>
-      <c r="I63">
-        <f t="shared" si="4"/>
-        <v>70.920336780451578</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1515672900</v>
       </c>
@@ -2380,27 +2115,19 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>21.048185452359199</v>
       </c>
       <c r="F64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>7.5292151961676215</v>
       </c>
       <c r="G64">
-        <f t="shared" si="2"/>
-        <v>2.7955351127528867</v>
-      </c>
-      <c r="H64">
-        <f t="shared" si="3"/>
+        <f>(100 * E64) / (E64 + F64)</f>
         <v>73.653253881382113</v>
       </c>
-      <c r="I64">
-        <f t="shared" si="4"/>
-        <v>73.653253881382113</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1515672960</v>
       </c>
@@ -2416,27 +2143,19 @@
         <v>47.399999999999636</v>
       </c>
       <c r="E65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>19.544743634333543</v>
       </c>
       <c r="F65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>10.377128396441337</v>
       </c>
       <c r="G65">
-        <f t="shared" si="2"/>
-        <v>1.8834443294578571</v>
-      </c>
-      <c r="H65">
-        <f t="shared" si="3"/>
+        <f>(100 * E65) / (E65 + F65)</f>
         <v>65.319254137012621</v>
       </c>
-      <c r="I65">
-        <f t="shared" si="4"/>
-        <v>65.319254137012621</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1515673020</v>
       </c>
@@ -2452,27 +2171,19 @@
         <v>39.899999999999636</v>
       </c>
       <c r="E66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>18.148690517595433</v>
       </c>
       <c r="F66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>12.485904939552643</v>
       </c>
       <c r="G66">
-        <f t="shared" si="2"/>
-        <v>1.4535342536610472</v>
-      </c>
-      <c r="H66">
-        <f t="shared" si="3"/>
+        <f>(100 * E66) / (E66 + F66)</f>
         <v>59.242468349164163</v>
       </c>
-      <c r="I66">
-        <f t="shared" si="4"/>
-        <v>59.24246834916417</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1515673080</v>
       </c>
@@ -2480,35 +2191,27 @@
         <v>13668.4</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C130" si="7">IF(B67&gt;B66,B67-B66,0)</f>
+        <f t="shared" ref="C67:C130" si="4">IF(B67&gt;B66,B67-B66,0)</f>
         <v>14.199999999998909</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D130" si="8">IF(B67&lt;B66,B66-B67,0)</f>
+        <f t="shared" ref="D67:D130" si="5">IF(B67&lt;B66,B66-B67,0)</f>
         <v>0</v>
       </c>
       <c r="E67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>17.866641194909967</v>
       </c>
       <c r="F67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>11.594054586727454</v>
       </c>
       <c r="G67">
-        <f t="shared" si="2"/>
-        <v>1.5410175155948629</v>
-      </c>
-      <c r="H67">
-        <f t="shared" si="3"/>
+        <f>(100 * E67) / (E67 + F67)</f>
         <v>60.645686467615882</v>
       </c>
-      <c r="I67">
-        <f t="shared" si="4"/>
-        <v>60.645686467615874</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1515673140</v>
       </c>
@@ -2516,35 +2219,27 @@
         <v>13661.1</v>
       </c>
       <c r="C68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>7.2999999999992724</v>
       </c>
       <c r="E68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>16.590452538130684</v>
       </c>
       <c r="F68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>11.287336401961156</v>
       </c>
       <c r="G68">
-        <f t="shared" si="2"/>
-        <v>1.4698288371424919</v>
-      </c>
-      <c r="H68">
-        <f t="shared" si="3"/>
+        <f>(100 * E68) / (E68 + F68)</f>
         <v>59.511364311505652</v>
       </c>
-      <c r="I68">
-        <f t="shared" si="4"/>
-        <v>59.511364311505652</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1515673200</v>
       </c>
@@ -2552,35 +2247,27 @@
         <v>13638.4</v>
       </c>
       <c r="C69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>22.700000000000728</v>
       </c>
       <c r="E69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>15.405420213978491</v>
       </c>
       <c r="F69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>12.102526658963983</v>
       </c>
       <c r="G69">
-        <f t="shared" si="2"/>
-        <v>1.2729094219815789</v>
-      </c>
-      <c r="H69">
-        <f t="shared" si="3"/>
+        <f>(100 * E69) / (E69 + F69)</f>
         <v>56.003526126959549</v>
       </c>
-      <c r="I69">
-        <f t="shared" si="4"/>
-        <v>56.003526126959549</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1515673260</v>
       </c>
@@ -2588,35 +2275,27 @@
         <v>13660</v>
       </c>
       <c r="C70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>21.600000000000364</v>
       </c>
       <c r="D70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>15.847890198694341</v>
       </c>
       <c r="F70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>11.238060469037984</v>
       </c>
       <c r="G70">
-        <f t="shared" si="2"/>
-        <v>1.4101979823259461</v>
-      </c>
-      <c r="H70">
-        <f t="shared" si="3"/>
+        <f>(100 * E70) / (E70 + F70)</f>
         <v>58.50963251429841</v>
       </c>
-      <c r="I70">
-        <f t="shared" si="4"/>
-        <v>58.50963251429841</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1515673320</v>
       </c>
@@ -2624,35 +2303,27 @@
         <v>13665.7</v>
       </c>
       <c r="C71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>5.7000000000007276</v>
       </c>
       <c r="D71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>15.123040898787654</v>
       </c>
       <c r="F71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>10.4353418641067</v>
       </c>
       <c r="G71">
-        <f t="shared" si="2"/>
-        <v>1.4492137484067213</v>
-      </c>
-      <c r="H71">
-        <f t="shared" si="3"/>
+        <f>(100 * E71) / (E71 + F71)</f>
         <v>59.170570528990105</v>
       </c>
-      <c r="I71">
-        <f t="shared" si="4"/>
-        <v>59.170570528990105</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1515673380</v>
       </c>
@@ -2660,35 +2331,27 @@
         <v>13697.4</v>
       </c>
       <c r="C72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>31.699999999998909</v>
       </c>
       <c r="D72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>16.30710940601703</v>
       </c>
       <c r="F72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>9.689960302384792</v>
       </c>
       <c r="G72">
-        <f t="shared" si="2"/>
-        <v>1.6828871220456594</v>
-      </c>
-      <c r="H72">
-        <f t="shared" si="3"/>
+        <f>(100 * E72) / (E72 + F72)</f>
         <v>62.726721084056798</v>
       </c>
-      <c r="I72">
-        <f t="shared" si="4"/>
-        <v>62.726721084056805</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1515673440</v>
       </c>
@@ -2696,35 +2359,27 @@
         <v>13697.4</v>
       </c>
       <c r="C73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>15.142315877015815</v>
       </c>
       <c r="F73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>8.9978202807858789</v>
       </c>
       <c r="G73">
-        <f t="shared" si="2"/>
-        <v>1.6828871220456594</v>
-      </c>
-      <c r="H73">
-        <f t="shared" si="3"/>
+        <f>(100 * E73) / (E73 + F73)</f>
         <v>62.726721084056805</v>
       </c>
-      <c r="I73">
-        <f t="shared" si="4"/>
-        <v>62.726721084056805</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1515673500</v>
       </c>
@@ -2732,35 +2387,27 @@
         <v>13637.1</v>
       </c>
       <c r="C74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>60.299999999999272</v>
       </c>
       <c r="E74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>14.060721885800399</v>
       </c>
       <c r="F74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>12.662261689301122</v>
       </c>
       <c r="G74">
-        <f t="shared" si="2"/>
-        <v>1.1104431602200178</v>
-      </c>
-      <c r="H74">
-        <f t="shared" si="3"/>
+        <f>(100 * E74) / (E74 + F74)</f>
         <v>52.616586940169093</v>
       </c>
-      <c r="I74">
-        <f t="shared" si="4"/>
-        <v>52.616586940169093</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1515673560</v>
       </c>
@@ -2768,35 +2415,27 @@
         <v>13636.2</v>
       </c>
       <c r="C75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.8999999999996362</v>
       </c>
       <c r="E75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>13.05638460824323</v>
       </c>
       <c r="F75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>11.822100140065302</v>
       </c>
       <c r="G75">
-        <f t="shared" si="2"/>
-        <v>1.1044048395424191</v>
-      </c>
-      <c r="H75">
-        <f t="shared" si="3"/>
+        <f>(100 * E75) / (E75 + F75)</f>
         <v>52.480626293492101</v>
       </c>
-      <c r="I75">
-        <f t="shared" si="4"/>
-        <v>52.480626293492108</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1515673620</v>
       </c>
@@ -2804,35 +2443,27 @@
         <v>13654.1</v>
       </c>
       <c r="C76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>17.899999999999636</v>
       </c>
       <c r="D76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>13.402357136225831</v>
       </c>
       <c r="F76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>10.977664415774923</v>
       </c>
       <c r="G76">
-        <f t="shared" si="2"/>
-        <v>1.2208750995308821</v>
-      </c>
-      <c r="H76">
-        <f t="shared" si="3"/>
+        <f>(100 * E76) / (E76 + F76)</f>
         <v>54.972704218655466</v>
       </c>
-      <c r="I76">
-        <f t="shared" si="4"/>
-        <v>54.972704218655473</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1515673680</v>
       </c>
@@ -2840,35 +2471,27 @@
         <v>13636.2</v>
       </c>
       <c r="C77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>17.899999999999636</v>
       </c>
       <c r="E77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>12.445045912209698</v>
       </c>
       <c r="F77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>11.472116957505261</v>
       </c>
       <c r="G77">
-        <f t="shared" si="2"/>
-        <v>1.0848081446788189</v>
-      </c>
-      <c r="H77">
-        <f t="shared" si="3"/>
+        <f>(100 * E77) / (E77 + F77)</f>
         <v>52.033955615898755</v>
       </c>
-      <c r="I77">
-        <f t="shared" si="4"/>
-        <v>52.033955615898755</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1515673740</v>
       </c>
@@ -2876,35 +2499,27 @@
         <v>13663.6</v>
       </c>
       <c r="C78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>27.399999999999636</v>
       </c>
       <c r="D78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>13.513256918480408</v>
       </c>
       <c r="F78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>10.652680031969171</v>
       </c>
       <c r="G78">
-        <f t="shared" si="2"/>
-        <v>1.2685311938335253</v>
-      </c>
-      <c r="H78">
-        <f t="shared" si="3"/>
+        <f>(100 * E78) / (E78 + F78)</f>
         <v>55.918613651058998</v>
       </c>
-      <c r="I78">
-        <f t="shared" si="4"/>
-        <v>55.918613651058998</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1515673800</v>
       </c>
@@ -2912,35 +2527,27 @@
         <v>13639.5</v>
       </c>
       <c r="C79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>24.100000000000364</v>
       </c>
       <c r="E79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>12.548024281446093</v>
       </c>
       <c r="F79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>11.613202886828542</v>
       </c>
       <c r="G79">
-        <f t="shared" si="2"/>
-        <v>1.0804964318394719</v>
-      </c>
-      <c r="H79">
-        <f t="shared" si="3"/>
+        <f>(100 * E79) / (E79 + F79)</f>
         <v>51.934548663664394</v>
       </c>
-      <c r="I79">
-        <f t="shared" si="4"/>
-        <v>51.934548663664394</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1515673860</v>
       </c>
@@ -2948,35 +2555,27 @@
         <v>13671.3</v>
       </c>
       <c r="C80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>31.799999999999272</v>
       </c>
       <c r="D80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>13.923165404199892</v>
       </c>
       <c r="F80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>10.783688394912218</v>
       </c>
       <c r="G80">
-        <f t="shared" ref="G80:G143" si="9">E80/F80</f>
-        <v>1.291132022209478</v>
-      </c>
-      <c r="H80">
-        <f t="shared" ref="H80:H143" si="10">(100 * E80) / (E80 + F80)</f>
+        <f>(100 * E80) / (E80 + F80)</f>
         <v>56.353453650582772</v>
       </c>
-      <c r="I80">
-        <f t="shared" ref="I80:I143" si="11">100-(100/(G80+1))</f>
-        <v>56.353453650582772</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1515673920</v>
       </c>
@@ -2984,35 +2583,27 @@
         <v>13640.5</v>
       </c>
       <c r="C81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D81">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>30.799999999999272</v>
       </c>
       <c r="E81">
-        <f t="shared" ref="E81:E144" si="12">((E80*13)+C81)/14</f>
+        <f t="shared" ref="E81:E144" si="6">((E80*13)+C81)/14</f>
         <v>12.928653589614186</v>
       </c>
       <c r="F81">
-        <f t="shared" ref="F81:F144" si="13">((F80*13)+D81)/14</f>
+        <f t="shared" ref="F81:F144" si="7">((F80*13)+D81)/14</f>
         <v>12.213424938132722</v>
       </c>
       <c r="G81">
-        <f t="shared" si="9"/>
-        <v>1.0585608586538555</v>
-      </c>
-      <c r="H81">
-        <f t="shared" si="10"/>
+        <f>(100 * E81) / (E81 + F81)</f>
         <v>51.422373752218093</v>
       </c>
-      <c r="I81">
-        <f t="shared" si="11"/>
-        <v>51.422373752218093</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1515673980</v>
       </c>
@@ -3020,35 +2611,27 @@
         <v>13655</v>
       </c>
       <c r="C82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>14.5</v>
       </c>
       <c r="D82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>13.040892618927458</v>
       </c>
       <c r="F82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>11.341037442551812</v>
       </c>
       <c r="G82">
-        <f t="shared" si="9"/>
-        <v>1.1498853332410097</v>
-      </c>
-      <c r="H82">
-        <f t="shared" si="10"/>
+        <f>(100 * E82) / (E82 + F82)</f>
         <v>53.485891338563938</v>
       </c>
-      <c r="I82">
-        <f t="shared" si="11"/>
-        <v>53.485891338563938</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1515674040</v>
       </c>
@@ -3056,35 +2639,27 @@
         <v>13689</v>
       </c>
       <c r="C83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="D83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E83">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>14.537971717575497</v>
       </c>
       <c r="F83">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>10.530963339512397</v>
       </c>
       <c r="G83">
-        <f t="shared" si="9"/>
-        <v>1.3804977995724967</v>
-      </c>
-      <c r="H83">
-        <f t="shared" si="10"/>
+        <f>(100 * E83) / (E83 + F83)</f>
         <v>57.991979653180714</v>
       </c>
-      <c r="I83">
-        <f t="shared" si="11"/>
-        <v>57.991979653180707</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1515674100</v>
       </c>
@@ -3092,35 +2667,27 @@
         <v>13689</v>
       </c>
       <c r="C84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>13.499545166320104</v>
       </c>
       <c r="F84">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>9.7787516724043684</v>
       </c>
       <c r="G84">
-        <f t="shared" si="9"/>
-        <v>1.3804977995724967</v>
-      </c>
-      <c r="H84">
-        <f t="shared" si="10"/>
+        <f>(100 * E84) / (E84 + F84)</f>
         <v>57.991979653180707</v>
       </c>
-      <c r="I84">
-        <f t="shared" si="11"/>
-        <v>57.991979653180707</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1515674160</v>
       </c>
@@ -3128,35 +2695,27 @@
         <v>13705.7</v>
       </c>
       <c r="C85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>16.700000000000728</v>
       </c>
       <c r="D85">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>13.728149083011576</v>
       </c>
       <c r="F85">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>9.0802694100897714</v>
       </c>
       <c r="G85">
-        <f t="shared" si="9"/>
-        <v>1.5118658338217581</v>
-      </c>
-      <c r="H85">
-        <f t="shared" si="10"/>
+        <f>(100 * E85) / (E85 + F85)</f>
         <v>60.188956490621223</v>
       </c>
-      <c r="I85">
-        <f t="shared" si="11"/>
-        <v>60.18895649062123</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1515674220</v>
       </c>
@@ -3164,35 +2723,27 @@
         <v>13724.4</v>
       </c>
       <c r="C86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>18.699999999998909</v>
       </c>
       <c r="D86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>14.083281291367815</v>
       </c>
       <c r="F86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>8.4316787379405032</v>
       </c>
       <c r="G86">
-        <f t="shared" si="9"/>
-        <v>1.6702820077805474</v>
-      </c>
-      <c r="H86">
-        <f t="shared" si="10"/>
+        <f>(100 * E86) / (E86 + F86)</f>
         <v>62.550771900262021</v>
       </c>
-      <c r="I86">
-        <f t="shared" si="11"/>
-        <v>62.550771900262028</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1515674280</v>
       </c>
@@ -3200,35 +2751,27 @@
         <v>13740.5</v>
       </c>
       <c r="C87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>16.100000000000364</v>
       </c>
       <c r="D87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>14.227332627698711</v>
       </c>
       <c r="F87">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>7.8294159709447531</v>
       </c>
       <c r="G87">
-        <f t="shared" si="9"/>
-        <v>1.817163972446586</v>
-      </c>
-      <c r="H87">
-        <f t="shared" si="10"/>
+        <f>(100 * E87) / (E87 + F87)</f>
         <v>64.503308654357696</v>
       </c>
-      <c r="I87">
-        <f t="shared" si="11"/>
-        <v>64.50330865435771</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1515674340</v>
       </c>
@@ -3236,35 +2779,27 @@
         <v>13744</v>
       </c>
       <c r="C88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
       <c r="D88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>13.461094582863089</v>
       </c>
       <c r="F88">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>7.270171973020128</v>
       </c>
       <c r="G88">
-        <f t="shared" si="9"/>
-        <v>1.8515510544754237</v>
-      </c>
-      <c r="H88">
-        <f t="shared" si="10"/>
+        <f>(100 * E88) / (E88 + F88)</f>
         <v>64.931366091779068</v>
       </c>
-      <c r="I88">
-        <f t="shared" si="11"/>
-        <v>64.931366091779068</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1515674400</v>
       </c>
@@ -3272,35 +2807,27 @@
         <v>13750.6</v>
       </c>
       <c r="C89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>6.6000000000003638</v>
       </c>
       <c r="D89">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>12.971016398372894</v>
       </c>
       <c r="F89">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>6.7508739749472619</v>
       </c>
       <c r="G89">
-        <f t="shared" si="9"/>
-        <v>1.9213832825955286</v>
-      </c>
-      <c r="H89">
-        <f t="shared" si="10"/>
+        <f>(100 * E89) / (E89 + F89)</f>
         <v>65.769640500183144</v>
       </c>
-      <c r="I89">
-        <f t="shared" si="11"/>
-        <v>65.769640500183158</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1515674460</v>
       </c>
@@ -3308,35 +2835,27 @@
         <v>13734.5</v>
       </c>
       <c r="C90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>16.100000000000364</v>
       </c>
       <c r="E90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>12.044515227060545</v>
       </c>
       <c r="F90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>7.4186686910224831</v>
       </c>
       <c r="G90">
-        <f t="shared" si="9"/>
-        <v>1.6235413291384633</v>
-      </c>
-      <c r="H90">
-        <f t="shared" si="10"/>
+        <f>(100 * E90) / (E90 + F90)</f>
         <v>61.883581215456317</v>
       </c>
-      <c r="I90">
-        <f t="shared" si="11"/>
-        <v>61.883581215456331</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1515674520</v>
       </c>
@@ -3344,35 +2863,27 @@
         <v>13743.3</v>
       </c>
       <c r="C91">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>8.7999999999992724</v>
       </c>
       <c r="D91">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E91">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>11.812764139413312</v>
       </c>
       <c r="F91">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>6.8887637845208767</v>
       </c>
       <c r="G91">
-        <f t="shared" si="9"/>
-        <v>1.714787225823698</v>
-      </c>
-      <c r="H91">
-        <f t="shared" si="10"/>
+        <f>(100 * E91) / (E91 + F91)</f>
         <v>63.164700699643646</v>
       </c>
-      <c r="I91">
-        <f t="shared" si="11"/>
-        <v>63.164700699643653</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1515674580</v>
       </c>
@@ -3380,35 +2891,27 @@
         <v>13750.6</v>
       </c>
       <c r="C92">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>7.3000000000010914</v>
       </c>
       <c r="D92">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E92">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>11.490423843741011</v>
       </c>
       <c r="F92">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>6.3967092284836715</v>
       </c>
       <c r="G92">
-        <f t="shared" si="9"/>
-        <v>1.7963023538065048</v>
-      </c>
-      <c r="H92">
-        <f t="shared" si="10"/>
+        <f>(100 * E92) / (E92 + F92)</f>
         <v>64.238488064828317</v>
       </c>
-      <c r="I92">
-        <f t="shared" si="11"/>
-        <v>64.238488064828317</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1515674640</v>
       </c>
@@ -3416,35 +2919,27 @@
         <v>13724.4</v>
       </c>
       <c r="C93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>26.200000000000728</v>
       </c>
       <c r="E93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>10.669679283473796</v>
       </c>
       <c r="F93">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>7.8112299978777466</v>
       </c>
       <c r="G93">
-        <f t="shared" si="9"/>
-        <v>1.3659409960240152</v>
-      </c>
-      <c r="H93">
-        <f t="shared" si="10"/>
+        <f>(100 * E93) / (E93 + F93)</f>
         <v>57.733519065754002</v>
       </c>
-      <c r="I93">
-        <f t="shared" si="11"/>
-        <v>57.733519065754017</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1515674700</v>
       </c>
@@ -3452,35 +2947,27 @@
         <v>13706.3</v>
       </c>
       <c r="C94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D94">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>18.100000000000364</v>
       </c>
       <c r="E94">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>9.9075593346542394</v>
       </c>
       <c r="F94">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>8.5461421408865057</v>
       </c>
       <c r="G94">
-        <f t="shared" si="9"/>
-        <v>1.1593019600334558</v>
-      </c>
-      <c r="H94">
-        <f t="shared" si="10"/>
+        <f>(100 * E94) / (E94 + F94)</f>
         <v>53.68873744807297</v>
       </c>
-      <c r="I94">
-        <f t="shared" si="11"/>
-        <v>53.68873744807297</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1515674760</v>
       </c>
@@ -3488,35 +2975,27 @@
         <v>13741.9</v>
       </c>
       <c r="C95">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>35.600000000000364</v>
       </c>
       <c r="D95">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E95">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>11.742733667893248</v>
       </c>
       <c r="F95">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>7.9357034165374696</v>
       </c>
       <c r="G95">
-        <f t="shared" si="9"/>
-        <v>1.479734442119168</v>
-      </c>
-      <c r="H95">
-        <f t="shared" si="10"/>
+        <f>(100 * E95) / (E95 + F95)</f>
         <v>59.673101158952925</v>
       </c>
-      <c r="I95">
-        <f t="shared" si="11"/>
-        <v>59.673101158952925</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1515674820</v>
       </c>
@@ -3524,35 +3003,27 @@
         <v>13757.7</v>
       </c>
       <c r="C96">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>15.800000000001091</v>
       </c>
       <c r="D96">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E96">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>12.032538405900951</v>
       </c>
       <c r="F96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>7.3688674582133649</v>
       </c>
       <c r="G96">
-        <f t="shared" si="9"/>
-        <v>1.6328884288031864</v>
-      </c>
-      <c r="H96">
-        <f t="shared" si="10"/>
+        <f>(100 * E96) / (E96 + F96)</f>
         <v>62.018899507467424</v>
       </c>
-      <c r="I96">
-        <f t="shared" si="11"/>
-        <v>62.018899507467431</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1515674880</v>
       </c>
@@ -3560,35 +3031,27 @@
         <v>13776.9</v>
       </c>
       <c r="C97">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>19.199999999998909</v>
       </c>
       <c r="D97">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E97">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>12.544499948336519</v>
       </c>
       <c r="F97">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>6.8425197826266961</v>
       </c>
       <c r="G97">
-        <f t="shared" si="9"/>
-        <v>1.8333158466252844</v>
-      </c>
-      <c r="H97">
-        <f t="shared" si="10"/>
+        <f>(100 * E97) / (E97 + F97)</f>
         <v>64.705664524091674</v>
       </c>
-      <c r="I97">
-        <f t="shared" si="11"/>
-        <v>64.705664524091674</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1515674940</v>
       </c>
@@ -3596,35 +3059,27 @@
         <v>13857.2</v>
       </c>
       <c r="C98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>80.300000000001091</v>
       </c>
       <c r="D98">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E98">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>17.384178523455414</v>
       </c>
       <c r="F98">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>6.3537683695819327</v>
       </c>
       <c r="G98">
-        <f t="shared" si="9"/>
-        <v>2.7360422212872177</v>
-      </c>
-      <c r="H98">
-        <f t="shared" si="10"/>
+        <f>(100 * E98) / (E98 + F98)</f>
         <v>73.233707202177726</v>
       </c>
-      <c r="I98">
-        <f t="shared" si="11"/>
-        <v>73.233707202177726</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1515675000</v>
       </c>
@@ -3632,35 +3087,27 @@
         <v>13839.2</v>
       </c>
       <c r="C99">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D99">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="E99">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>16.142451486065742</v>
       </c>
       <c r="F99">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>7.1856420574689377</v>
       </c>
       <c r="G99">
-        <f t="shared" si="9"/>
-        <v>2.2464870024087644</v>
-      </c>
-      <c r="H99">
-        <f t="shared" si="10"/>
+        <f>(100 * E99) / (E99 + F99)</f>
         <v>69.197474092517865</v>
       </c>
-      <c r="I99">
-        <f t="shared" si="11"/>
-        <v>69.197474092517865</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1515675060</v>
       </c>
@@ -3668,35 +3115,27 @@
         <v>13845</v>
       </c>
       <c r="C100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>5.7999999999992724</v>
       </c>
       <c r="D100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E100">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>15.403704951346709</v>
       </c>
       <c r="F100">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>6.6723819105068705</v>
       </c>
       <c r="G100">
-        <f t="shared" si="9"/>
-        <v>2.3085766309465581</v>
-      </c>
-      <c r="H100">
-        <f t="shared" si="10"/>
+        <f>(100 * E100) / (E100 + F100)</f>
         <v>69.775522481584233</v>
       </c>
-      <c r="I100">
-        <f t="shared" si="11"/>
-        <v>69.775522481584233</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1515675120</v>
       </c>
@@ -3704,35 +3143,27 @@
         <v>13821.5</v>
       </c>
       <c r="C101">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D101">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>23.5</v>
       </c>
       <c r="E101">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>14.303440311964803</v>
       </c>
       <c r="F101">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>7.8743546311849508</v>
       </c>
       <c r="G101">
-        <f t="shared" si="9"/>
-        <v>1.8164587425766456</v>
-      </c>
-      <c r="H101">
-        <f t="shared" si="10"/>
+        <f>(100 * E101) / (E101 + F101)</f>
         <v>64.494420426512377</v>
       </c>
-      <c r="I101">
-        <f t="shared" si="11"/>
-        <v>64.494420426512363</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1515675180</v>
       </c>
@@ -3740,35 +3171,27 @@
         <v>13840.7</v>
       </c>
       <c r="C102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>19.200000000000728</v>
       </c>
       <c r="D102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E102">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>14.65319457539594</v>
       </c>
       <c r="F102">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>7.311900728957454</v>
       </c>
       <c r="G102">
-        <f t="shared" si="9"/>
-        <v>2.0040199010586432</v>
-      </c>
-      <c r="H102">
-        <f t="shared" si="10"/>
+        <f>(100 * E102) / (E102 + F102)</f>
         <v>66.711272463688033</v>
       </c>
-      <c r="I102">
-        <f t="shared" si="11"/>
-        <v>66.711272463688033</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1515675240</v>
       </c>
@@ -3776,35 +3199,27 @@
         <v>13853.2</v>
       </c>
       <c r="C103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>12.5</v>
       </c>
       <c r="D103">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E103">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>14.499394962867658</v>
       </c>
       <c r="F103">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>6.7896221054604933</v>
       </c>
       <c r="G103">
-        <f t="shared" si="9"/>
-        <v>2.1355231171417697</v>
-      </c>
-      <c r="H103">
-        <f t="shared" si="10"/>
+        <f>(100 * E103) / (E103 + F103)</f>
         <v>68.107395077617426</v>
       </c>
-      <c r="I103">
-        <f t="shared" si="11"/>
-        <v>68.107395077617412</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1515675300</v>
       </c>
@@ -3812,35 +3227,27 @@
         <v>13880.2</v>
       </c>
       <c r="C104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="D104">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E104">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>15.392295322662827</v>
       </c>
       <c r="F104">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>6.3046490979276006</v>
       </c>
       <c r="G104">
-        <f t="shared" si="9"/>
-        <v>2.441419829015135</v>
-      </c>
-      <c r="H104">
-        <f t="shared" si="10"/>
+        <f>(100 * E104) / (E104 + F104)</f>
         <v>70.942225892672326</v>
       </c>
-      <c r="I104">
-        <f t="shared" si="11"/>
-        <v>70.942225892672326</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1515675360</v>
       </c>
@@ -3848,35 +3255,27 @@
         <v>13878.5</v>
       </c>
       <c r="C105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D105">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1.7000000000007276</v>
       </c>
       <c r="E105">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>14.29284565675834</v>
       </c>
       <c r="F105">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>5.9757455909328243</v>
       </c>
       <c r="G105">
-        <f t="shared" si="9"/>
-        <v>2.391809597524583</v>
-      </c>
-      <c r="H105">
-        <f t="shared" si="10"/>
+        <f>(100 * E105) / (E105 + F105)</f>
         <v>70.517212972985817</v>
       </c>
-      <c r="I105">
-        <f t="shared" si="11"/>
-        <v>70.517212972985817</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1515675420</v>
       </c>
@@ -3884,35 +3283,27 @@
         <v>13854.8</v>
       </c>
       <c r="C106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D106">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>23.700000000000728</v>
       </c>
       <c r="E106">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>13.27192810984703</v>
       </c>
       <c r="F106">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>7.2417637630091036</v>
       </c>
       <c r="G106">
-        <f t="shared" si="9"/>
-        <v>1.8326927726695503</v>
-      </c>
-      <c r="H106">
-        <f t="shared" si="10"/>
+        <f>(100 * E106) / (E106 + F106)</f>
         <v>64.697901246184472</v>
       </c>
-      <c r="I106">
-        <f t="shared" si="11"/>
-        <v>64.697901246184472</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1515675480</v>
       </c>
@@ -3920,35 +3311,27 @@
         <v>13845.6</v>
       </c>
       <c r="C107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>9.1999999999989086</v>
       </c>
       <c r="E107">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>12.323933244857956</v>
       </c>
       <c r="F107">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>7.3816377799369466</v>
       </c>
       <c r="G107">
-        <f t="shared" si="9"/>
-        <v>1.6695391473087462</v>
-      </c>
-      <c r="H107">
-        <f t="shared" si="10"/>
+        <f>(100 * E107) / (E107 + F107)</f>
         <v>62.540350793951298</v>
       </c>
-      <c r="I107">
-        <f t="shared" si="11"/>
-        <v>62.540350793951298</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1515675540</v>
       </c>
@@ -3956,35 +3339,27 @@
         <v>13806.3</v>
       </c>
       <c r="C108">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D108">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>39.300000000001091</v>
       </c>
       <c r="E108">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>11.443652298796675</v>
       </c>
       <c r="F108">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>9.6615207956558145</v>
       </c>
       <c r="G108">
-        <f t="shared" si="9"/>
-        <v>1.1844566234274603</v>
-      </c>
-      <c r="H108">
-        <f t="shared" si="10"/>
+        <f>(100 * E108) / (E108 + F108)</f>
         <v>54.222025318544517</v>
       </c>
-      <c r="I108">
-        <f t="shared" si="11"/>
-        <v>54.222025318544524</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1515675600</v>
       </c>
@@ -3992,35 +3367,27 @@
         <v>13809</v>
       </c>
       <c r="C109">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>2.7000000000007276</v>
       </c>
       <c r="D109">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E109">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>10.819105706025535</v>
       </c>
       <c r="F109">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>8.9714121673946856</v>
       </c>
       <c r="G109">
-        <f t="shared" si="9"/>
-        <v>1.2059534780205536</v>
-      </c>
-      <c r="H109">
-        <f t="shared" si="10"/>
+        <f>(100 * E109) / (E109 + F109)</f>
         <v>54.668128318947133</v>
       </c>
-      <c r="I109">
-        <f t="shared" si="11"/>
-        <v>54.668128318947147</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1515675660</v>
       </c>
@@ -4028,35 +3395,27 @@
         <v>13837.2</v>
       </c>
       <c r="C110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>28.200000000000728</v>
       </c>
       <c r="D110">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E110">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>12.060598155595191</v>
       </c>
       <c r="F110">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>8.33059701258078</v>
       </c>
       <c r="G110">
-        <f t="shared" si="9"/>
-        <v>1.447747158742813</v>
-      </c>
-      <c r="H110">
-        <f t="shared" si="10"/>
+        <f>(100 * E110) / (E110 + F110)</f>
         <v>59.146107210125024</v>
       </c>
-      <c r="I110">
-        <f t="shared" si="11"/>
-        <v>59.146107210125017</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1515675720</v>
       </c>
@@ -4064,35 +3423,27 @@
         <v>13821.5</v>
       </c>
       <c r="C111">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D111">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>15.700000000000728</v>
       </c>
       <c r="E111">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>11.199126858766963</v>
       </c>
       <c r="F111">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>8.8569829402536335</v>
       </c>
       <c r="G111">
-        <f t="shared" si="9"/>
-        <v>1.2644403782092255</v>
-      </c>
-      <c r="H111">
-        <f t="shared" si="10"/>
+        <f>(100 * E111) / (E111 + F111)</f>
         <v>55.838978600495352</v>
       </c>
-      <c r="I111">
-        <f t="shared" si="11"/>
-        <v>55.838978600495352</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1515675780</v>
       </c>
@@ -4100,35 +3451,27 @@
         <v>13805.8</v>
       </c>
       <c r="C112">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D112">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>15.700000000000728</v>
       </c>
       <c r="E112">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>10.399189225997896</v>
       </c>
       <c r="F112">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>9.3457698730927099</v>
       </c>
       <c r="G112">
-        <f t="shared" si="9"/>
-        <v>1.1127161664806313</v>
-      </c>
-      <c r="H112">
-        <f t="shared" si="10"/>
+        <f>(100 * E112) / (E112 + F112)</f>
         <v>52.667565295067391</v>
       </c>
-      <c r="I112">
-        <f t="shared" si="11"/>
-        <v>52.667565295067398</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1515675840</v>
       </c>
@@ -4136,35 +3479,27 @@
         <v>13863.7</v>
       </c>
       <c r="C113">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>57.900000000001455</v>
       </c>
       <c r="D113">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E113">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>13.792104281283866</v>
       </c>
       <c r="F113">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>8.6782148821575156</v>
       </c>
       <c r="G113">
-        <f t="shared" si="9"/>
-        <v>1.589278955242345</v>
-      </c>
-      <c r="H113">
-        <f t="shared" si="10"/>
+        <f>(100 * E113) / (E113 + F113)</f>
         <v>61.379209529534663</v>
       </c>
-      <c r="I113">
-        <f t="shared" si="11"/>
-        <v>61.379209529534663</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1515675900</v>
       </c>
@@ -4172,35 +3507,27 @@
         <v>13857.9</v>
       </c>
       <c r="C114">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D114">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>5.8000000000010914</v>
       </c>
       <c r="E114">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>12.806953975477876</v>
       </c>
       <c r="F114">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>8.4726281048606289</v>
       </c>
       <c r="G114">
-        <f t="shared" si="9"/>
-        <v>1.5115680538522285</v>
-      </c>
-      <c r="H114">
-        <f t="shared" si="10"/>
+        <f>(100 * E114) / (E114 + F114)</f>
         <v>60.184236359185817</v>
       </c>
-      <c r="I114">
-        <f t="shared" si="11"/>
-        <v>60.184236359185817</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1515675960</v>
       </c>
@@ -4208,35 +3535,27 @@
         <v>13845.6</v>
       </c>
       <c r="C115">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D115">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>12.299999999999272</v>
       </c>
       <c r="E115">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>11.892171548658029</v>
       </c>
       <c r="F115">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>8.7460118116562473</v>
       </c>
       <c r="G115">
-        <f t="shared" si="9"/>
-        <v>1.3597250729536789</v>
-      </c>
-      <c r="H115">
-        <f t="shared" si="10"/>
+        <f>(100 * E115) / (E115 + F115)</f>
         <v>57.622181860859953</v>
       </c>
-      <c r="I115">
-        <f t="shared" si="11"/>
-        <v>57.622181860859946</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1515676020</v>
       </c>
@@ -4244,35 +3563,27 @@
         <v>13852</v>
       </c>
       <c r="C116">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>6.3999999999996362</v>
       </c>
       <c r="D116">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E116">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>11.499873580896715</v>
       </c>
       <c r="F116">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>8.1212966822522308</v>
       </c>
       <c r="G116">
-        <f t="shared" si="9"/>
-        <v>1.416014465525907</v>
-      </c>
-      <c r="H116">
-        <f t="shared" si="10"/>
+        <f>(100 * E116) / (E116 + F116)</f>
         <v>58.609519343986022</v>
       </c>
-      <c r="I116">
-        <f t="shared" si="11"/>
-        <v>58.60951934398603</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1515676080</v>
       </c>
@@ -4280,35 +3591,27 @@
         <v>13813.6</v>
       </c>
       <c r="C117">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D117">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>38.399999999999636</v>
       </c>
       <c r="E117">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>10.678454039404091</v>
       </c>
       <c r="F117">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>10.284061204948474</v>
       </c>
       <c r="G117">
-        <f t="shared" si="9"/>
-        <v>1.0383499112457484</v>
-      </c>
-      <c r="H117">
-        <f t="shared" si="10"/>
+        <f>(100 * E117) / (E117 + F117)</f>
         <v>50.940709714121418</v>
       </c>
-      <c r="I117">
-        <f t="shared" si="11"/>
-        <v>50.940709714121425</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1515676140</v>
       </c>
@@ -4316,35 +3619,27 @@
         <v>13832.7</v>
       </c>
       <c r="C118">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>19.100000000000364</v>
       </c>
       <c r="D118">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E118">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>11.27999303658954</v>
       </c>
       <c r="F118">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>9.5494854045950124</v>
       </c>
       <c r="G118">
-        <f t="shared" si="9"/>
-        <v>1.1812147522799337</v>
-      </c>
-      <c r="H118">
-        <f t="shared" si="10"/>
+        <f>(100 * E118) / (E118 + F118)</f>
         <v>54.153986949027313</v>
       </c>
-      <c r="I118">
-        <f t="shared" si="11"/>
-        <v>54.153986949027313</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1515676200</v>
       </c>
@@ -4352,35 +3647,27 @@
         <v>13811.7</v>
       </c>
       <c r="C119">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D119">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="E119">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>10.474279248261714</v>
       </c>
       <c r="F119">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>10.367379304266796</v>
       </c>
       <c r="G119">
-        <f t="shared" si="9"/>
-        <v>1.0103111828802214</v>
-      </c>
-      <c r="H119">
-        <f t="shared" si="10"/>
+        <f>(100 * E119) / (E119 + F119)</f>
         <v>50.256457382519464</v>
       </c>
-      <c r="I119">
-        <f t="shared" si="11"/>
-        <v>50.256457382519464</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1515676260</v>
       </c>
@@ -4388,35 +3675,27 @@
         <v>13811.9</v>
       </c>
       <c r="C120">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0.19999999999890861</v>
       </c>
       <c r="D120">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E120">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>9.7404021591000856</v>
       </c>
       <c r="F120">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>9.6268522111048807</v>
       </c>
       <c r="G120">
-        <f t="shared" si="9"/>
-        <v>1.0117951273692787</v>
-      </c>
-      <c r="H120">
-        <f t="shared" si="10"/>
+        <f>(100 * E120) / (E120 + F120)</f>
         <v>50.293149317463119</v>
       </c>
-      <c r="I120">
-        <f t="shared" si="11"/>
-        <v>50.293149317463126</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1515676320</v>
       </c>
@@ -4424,35 +3703,27 @@
         <v>13844.6</v>
       </c>
       <c r="C121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>32.700000000000728</v>
       </c>
       <c r="D121">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E121">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>11.380373433450131</v>
       </c>
       <c r="F121">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>8.9392199103116745</v>
       </c>
       <c r="G121">
-        <f t="shared" si="9"/>
-        <v>1.2730835070208428</v>
-      </c>
-      <c r="H121">
-        <f t="shared" si="10"/>
+        <f>(100 * E121) / (E121 + F121)</f>
         <v>56.006895615083508</v>
       </c>
-      <c r="I121">
-        <f t="shared" si="11"/>
-        <v>56.006895615083508</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1515676380</v>
       </c>
@@ -4460,35 +3731,27 @@
         <v>13826.7</v>
       </c>
       <c r="C122">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D122">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>17.899999999999636</v>
       </c>
       <c r="E122">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>10.567489616775122</v>
       </c>
       <c r="F122">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>9.5792756310036715</v>
       </c>
       <c r="G122">
-        <f t="shared" si="9"/>
-        <v>1.1031616610522261</v>
-      </c>
-      <c r="H122">
-        <f t="shared" si="10"/>
+        <f>(100 * E122) / (E122 + F122)</f>
         <v>52.452537600001072</v>
       </c>
-      <c r="I122">
-        <f t="shared" si="11"/>
-        <v>52.452537600001079</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1515676440</v>
       </c>
@@ -4496,35 +3759,27 @@
         <v>13816.8</v>
       </c>
       <c r="C123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>9.9000000000014552</v>
       </c>
       <c r="E123">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>9.8126689298626122</v>
       </c>
       <c r="F123">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>9.6021845145035147</v>
       </c>
       <c r="G123">
-        <f t="shared" si="9"/>
-        <v>1.0219204718510848</v>
-      </c>
-      <c r="H123">
-        <f t="shared" si="10"/>
+        <f>(100 * E123) / (E123 + F123)</f>
         <v>50.542070574888058</v>
       </c>
-      <c r="I123">
-        <f t="shared" si="11"/>
-        <v>50.542070574888058</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1515676500</v>
       </c>
@@ -4532,35 +3787,27 @@
         <v>13792</v>
       </c>
       <c r="C124">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D124">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>24.799999999999272</v>
       </c>
       <c r="E124">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>9.1117640063009979</v>
       </c>
       <c r="F124">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>10.687742763467497</v>
       </c>
       <c r="G124">
-        <f t="shared" si="9"/>
-        <v>0.85254334876458104</v>
-      </c>
-      <c r="H124">
-        <f t="shared" si="10"/>
+        <f>(100 * E124) / (E124 + F124)</f>
         <v>46.020156523361401</v>
       </c>
-      <c r="I124">
-        <f t="shared" si="11"/>
-        <v>46.020156523361401</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1515676560</v>
       </c>
@@ -4568,35 +3815,27 @@
         <v>13752.4</v>
       </c>
       <c r="C125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D125">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>39.600000000000364</v>
       </c>
       <c r="E125">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>8.4609237201366412</v>
       </c>
       <c r="F125">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>12.752903994648417</v>
       </c>
       <c r="G125">
-        <f t="shared" si="9"/>
-        <v>0.66345075001640041</v>
-      </c>
-      <c r="H125">
-        <f t="shared" si="10"/>
+        <f>(100 * E125) / (E125 + F125)</f>
         <v>39.884003178925454</v>
       </c>
-      <c r="I125">
-        <f t="shared" si="11"/>
-        <v>39.884003178925454</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1515676620</v>
       </c>
@@ -4604,35 +3843,27 @@
         <v>13750.8</v>
       </c>
       <c r="C126">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D126">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1.6000000000003638</v>
       </c>
       <c r="E126">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>7.8565720258411664</v>
       </c>
       <c r="F126">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>11.956267995030698</v>
       </c>
       <c r="G126">
-        <f t="shared" si="9"/>
-        <v>0.65710906021063931</v>
-      </c>
-      <c r="H126">
-        <f t="shared" si="10"/>
+        <f>(100 * E126) / (E126 + F126)</f>
         <v>39.653941674008621</v>
       </c>
-      <c r="I126">
-        <f t="shared" si="11"/>
-        <v>39.653941674008621</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1515676680</v>
       </c>
@@ -4640,35 +3871,27 @@
         <v>13776</v>
       </c>
       <c r="C127">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>25.200000000000728</v>
       </c>
       <c r="D127">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E127">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>9.0953883097097066</v>
       </c>
       <c r="F127">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>11.102248852528506</v>
       </c>
       <c r="G127">
-        <f t="shared" si="9"/>
-        <v>0.81923837508274344</v>
-      </c>
-      <c r="H127">
-        <f t="shared" si="10"/>
+        <f>(100 * E127) / (E127 + F127)</f>
         <v>45.031942284390439</v>
       </c>
-      <c r="I127">
-        <f t="shared" si="11"/>
-        <v>45.031942284390439</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1515676740</v>
       </c>
@@ -4676,35 +3899,27 @@
         <v>13760.8</v>
       </c>
       <c r="C128">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D128">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>15.200000000000728</v>
       </c>
       <c r="E128">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>8.4457177161590131</v>
       </c>
       <c r="F128">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>11.394945363062236</v>
       </c>
       <c r="G128">
-        <f t="shared" si="9"/>
-        <v>0.7411810629243194</v>
-      </c>
-      <c r="H128">
-        <f t="shared" si="10"/>
+        <f>(100 * E128) / (E128 + F128)</f>
         <v>42.567719044652556</v>
       </c>
-      <c r="I128">
-        <f t="shared" si="11"/>
-        <v>42.567719044652563</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1515676800</v>
       </c>
@@ -4712,35 +3927,27 @@
         <v>13751.6</v>
       </c>
       <c r="C129">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D129">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>9.1999999999989086</v>
       </c>
       <c r="E129">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>7.842452165004798</v>
       </c>
       <c r="F129">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>11.238163551414855</v>
       </c>
       <c r="G129">
-        <f t="shared" si="9"/>
-        <v>0.69784107778156101</v>
-      </c>
-      <c r="H129">
-        <f t="shared" si="10"/>
+        <f>(100 * E129) / (E129 + F129)</f>
         <v>41.101672407018008</v>
       </c>
-      <c r="I129">
-        <f t="shared" si="11"/>
-        <v>41.101672407018015</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1515676860</v>
       </c>
@@ -4748,35 +3955,27 @@
         <v>13706.6</v>
       </c>
       <c r="C130">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D130">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="E130">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>7.2822770103615984</v>
       </c>
       <c r="F130">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>13.649723297742366</v>
       </c>
       <c r="G130">
-        <f t="shared" si="9"/>
-        <v>0.53351096220141481</v>
-      </c>
-      <c r="H130">
-        <f t="shared" si="10"/>
+        <f>(100 * E130) / (E130 + F130)</f>
         <v>34.790162923618034</v>
       </c>
-      <c r="I130">
-        <f t="shared" si="11"/>
-        <v>34.790162923618027</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1515676920</v>
       </c>
@@ -4784,35 +3983,27 @@
         <v>13706.6</v>
       </c>
       <c r="C131">
-        <f t="shared" ref="C131:C194" si="14">IF(B131&gt;B130,B131-B130,0)</f>
+        <f t="shared" ref="C131:C194" si="8">IF(B131&gt;B130,B131-B130,0)</f>
         <v>0</v>
       </c>
       <c r="D131">
-        <f t="shared" ref="D131:D194" si="15">IF(B131&lt;B130,B130-B131,0)</f>
+        <f t="shared" ref="D131:D194" si="9">IF(B131&lt;B130,B130-B131,0)</f>
         <v>0</v>
       </c>
       <c r="E131">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>6.762114366764342</v>
       </c>
       <c r="F131">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>12.674743062189339</v>
       </c>
       <c r="G131">
-        <f t="shared" si="9"/>
-        <v>0.53351096220141492</v>
-      </c>
-      <c r="H131">
-        <f t="shared" si="10"/>
+        <f>(100 * E131) / (E131 + F131)</f>
         <v>34.790162923618041</v>
       </c>
-      <c r="I131">
-        <f t="shared" si="11"/>
-        <v>34.790162923618041</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1515676980</v>
       </c>
@@ -4820,35 +4011,27 @@
         <v>13714.5</v>
       </c>
       <c r="C132">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>7.8999999999996362</v>
       </c>
       <c r="D132">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E132">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>6.8433919119954343</v>
       </c>
       <c r="F132">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>11.769404272032958</v>
       </c>
       <c r="G132">
-        <f t="shared" si="9"/>
-        <v>0.58145610039558604</v>
-      </c>
-      <c r="H132">
-        <f t="shared" si="10"/>
+        <f>(100 * E132) / (E132 + F132)</f>
         <v>36.7671350630688</v>
       </c>
-      <c r="I132">
-        <f t="shared" si="11"/>
-        <v>36.7671350630688</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1515677040</v>
       </c>
@@ -4856,35 +4039,27 @@
         <v>13757.1</v>
       </c>
       <c r="C133">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>42.600000000000364</v>
       </c>
       <c r="D133">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E133">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>9.3974353468529284</v>
       </c>
       <c r="F133">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>10.928732538316316</v>
       </c>
       <c r="G133">
-        <f t="shared" si="9"/>
-        <v>0.85988336835084633</v>
-      </c>
-      <c r="H133">
-        <f t="shared" si="10"/>
+        <f>(100 * E133) / (E133 + F133)</f>
         <v>46.233187681725582</v>
       </c>
-      <c r="I133">
-        <f t="shared" si="11"/>
-        <v>46.233187681725582</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1515677100</v>
       </c>
@@ -4892,35 +4067,27 @@
         <v>13765.7</v>
       </c>
       <c r="C134">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>8.6000000000003638</v>
       </c>
       <c r="D134">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E134">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>9.3404756792206012</v>
       </c>
       <c r="F134">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>10.148108785579437</v>
       </c>
       <c r="G134">
-        <f t="shared" si="9"/>
-        <v>0.92041540710457403</v>
-      </c>
-      <c r="H134">
-        <f t="shared" si="10"/>
+        <f>(100 * E134) / (E134 + F134)</f>
         <v>47.927932868039825</v>
       </c>
-      <c r="I134">
-        <f t="shared" si="11"/>
-        <v>47.927932868039832</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1515677160</v>
       </c>
@@ -4928,35 +4095,27 @@
         <v>13757.1</v>
       </c>
       <c r="C135">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D135">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>8.6000000000003638</v>
       </c>
       <c r="E135">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>8.6732988449905584</v>
       </c>
       <c r="F135">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>10.037529586609503</v>
       </c>
       <c r="G135">
-        <f t="shared" si="9"/>
-        <v>0.86408700170220298</v>
-      </c>
-      <c r="H135">
-        <f t="shared" si="10"/>
+        <f>(100 * E135) / (E135 + F135)</f>
         <v>46.35443522288157</v>
       </c>
-      <c r="I135">
-        <f t="shared" si="11"/>
-        <v>46.35443522288157</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1515677220</v>
       </c>
@@ -4964,35 +4123,27 @@
         <v>13739.5</v>
       </c>
       <c r="C136">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D136">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>17.600000000000364</v>
       </c>
       <c r="E136">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>8.0537774989198034</v>
       </c>
       <c r="F136">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>10.577706044708851</v>
       </c>
       <c r="G136">
-        <f t="shared" si="9"/>
-        <v>0.76139169162754716</v>
-      </c>
-      <c r="H136">
-        <f t="shared" si="10"/>
+        <f>(100 * E136) / (E136 + F136)</f>
         <v>43.226710745070683</v>
       </c>
-      <c r="I136">
-        <f t="shared" si="11"/>
-        <v>43.226710745070683</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1515677280</v>
       </c>
@@ -5000,35 +4151,27 @@
         <v>13739.8</v>
       </c>
       <c r="C137">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.2999999999992724</v>
       </c>
       <c r="D137">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E137">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>7.4999362489969084</v>
       </c>
       <c r="F137">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>9.8221556129439325</v>
       </c>
       <c r="G137">
-        <f t="shared" si="9"/>
-        <v>0.76357334830994394</v>
-      </c>
-      <c r="H137">
-        <f t="shared" si="10"/>
+        <f>(100 * E137) / (E137 + F137)</f>
         <v>43.296943052676916</v>
       </c>
-      <c r="I137">
-        <f t="shared" si="11"/>
-        <v>43.296943052676923</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1515677340</v>
       </c>
@@ -5036,35 +4179,27 @@
         <v>13698.8</v>
       </c>
       <c r="C138">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D138">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>41</v>
       </c>
       <c r="E138">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>6.9642265169257005</v>
       </c>
       <c r="F138">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>12.049144497733652</v>
       </c>
       <c r="G138">
-        <f t="shared" si="9"/>
-        <v>0.57798514394408795</v>
-      </c>
-      <c r="H138">
-        <f t="shared" si="10"/>
+        <f>(100 * E138) / (E138 + F138)</f>
         <v>36.628047238736713</v>
       </c>
-      <c r="I138">
-        <f t="shared" si="11"/>
-        <v>36.628047238736706</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1515677400</v>
       </c>
@@ -5072,35 +4207,27 @@
         <v>13672.5</v>
       </c>
       <c r="C139">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D139">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>26.299999999999272</v>
       </c>
       <c r="E139">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>6.4667817657167221</v>
       </c>
       <c r="F139">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>13.067062747895481</v>
       </c>
       <c r="G139">
-        <f t="shared" si="9"/>
-        <v>0.49489176645747962</v>
-      </c>
-      <c r="H139">
-        <f t="shared" si="10"/>
+        <f>(100 * E139) / (E139 + F139)</f>
         <v>33.10552493243371</v>
       </c>
-      <c r="I139">
-        <f t="shared" si="11"/>
-        <v>33.10552493243371</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1515677460</v>
       </c>
@@ -5108,35 +4235,27 @@
         <v>13671</v>
       </c>
       <c r="C140">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D140">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
       <c r="E140">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>6.0048687824512417</v>
       </c>
       <c r="F140">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>12.240843980188661</v>
       </c>
       <c r="G140">
-        <f t="shared" si="9"/>
-        <v>0.49056002937133197</v>
-      </c>
-      <c r="H140">
-        <f t="shared" si="10"/>
+        <f>(100 * E140) / (E140 + F140)</f>
         <v>32.91112197462008</v>
       </c>
-      <c r="I140">
-        <f t="shared" si="11"/>
-        <v>32.911121974620073</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1515677520</v>
       </c>
@@ -5144,35 +4263,27 @@
         <v>13704.6</v>
       </c>
       <c r="C141">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>33.600000000000364</v>
       </c>
       <c r="D141">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E141">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>7.9759495837047512</v>
       </c>
       <c r="F141">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>11.366497981603757</v>
       </c>
       <c r="G141">
-        <f t="shared" si="9"/>
-        <v>0.7017068578742125</v>
-      </c>
-      <c r="H141">
-        <f t="shared" si="10"/>
+        <f>(100 * E141) / (E141 + F141)</f>
         <v>41.235472174731143</v>
       </c>
-      <c r="I141">
-        <f t="shared" si="11"/>
-        <v>41.235472174731143</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1515677580</v>
       </c>
@@ -5180,35 +4291,27 @@
         <v>13727.6</v>
       </c>
       <c r="C142">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="D142">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E142">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>9.0490960420115538</v>
       </c>
       <c r="F142">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>10.554605268632059</v>
       </c>
       <c r="G142">
-        <f t="shared" si="9"/>
-        <v>0.85735996862953945</v>
-      </c>
-      <c r="H142">
-        <f t="shared" si="10"/>
+        <f>(100 * E142) / (E142 + F142)</f>
         <v>46.160140366444203</v>
       </c>
-      <c r="I142">
-        <f t="shared" si="11"/>
-        <v>46.160140366444203</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1515677640</v>
       </c>
@@ -5216,35 +4319,27 @@
         <v>13693.3</v>
       </c>
       <c r="C143">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D143">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>34.300000000001091</v>
       </c>
       <c r="E143">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>8.4027320390107274</v>
       </c>
       <c r="F143">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>12.250704892301275</v>
       </c>
       <c r="G143">
-        <f t="shared" si="9"/>
-        <v>0.68589784121657082</v>
-      </c>
-      <c r="H143">
-        <f t="shared" si="10"/>
+        <f>(100 * E143) / (E143 + F143)</f>
         <v>40.684424906886179</v>
       </c>
-      <c r="I143">
-        <f t="shared" si="11"/>
-        <v>40.684424906886171</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1515677700</v>
       </c>
@@ -5252,35 +4347,27 @@
         <v>13673.1</v>
       </c>
       <c r="C144">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D144">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>20.199999999998909</v>
       </c>
       <c r="E144">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>7.8025368933671038</v>
       </c>
       <c r="F144">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>12.818511685708248</v>
       </c>
       <c r="G144">
-        <f t="shared" ref="G144:G200" si="16">E144/F144</f>
-        <v>0.6086928876514105</v>
-      </c>
-      <c r="H144">
-        <f t="shared" ref="H144:H200" si="17">(100 * E144) / (E144 + F144)</f>
+        <f>(100 * E144) / (E144 + F144)</f>
         <v>37.837731012789114</v>
       </c>
-      <c r="I144">
-        <f t="shared" ref="I144:I200" si="18">100-(100/(G144+1))</f>
-        <v>37.837731012789121</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1515677760</v>
       </c>
@@ -5288,35 +4375,27 @@
         <v>13695.4</v>
       </c>
       <c r="C145">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>22.299999999999272</v>
       </c>
       <c r="D145">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E145">
-        <f t="shared" ref="E145:E200" si="19">((E144*13)+C145)/14</f>
+        <f t="shared" ref="E145:E200" si="10">((E144*13)+C145)/14</f>
         <v>8.8380699724122582</v>
       </c>
       <c r="F145">
-        <f t="shared" ref="F145:F200" si="20">((F144*13)+D145)/14</f>
+        <f t="shared" ref="F145:F200" si="11">((F144*13)+D145)/14</f>
         <v>11.902903708157661</v>
       </c>
       <c r="G145">
-        <f t="shared" si="16"/>
-        <v>0.74251377555504228</v>
-      </c>
-      <c r="H145">
-        <f t="shared" si="17"/>
+        <f>(100 * E145) / (E145 + F145)</f>
         <v>42.611644508723018</v>
       </c>
-      <c r="I145">
-        <f t="shared" si="18"/>
-        <v>42.61164450872301</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1515677820</v>
       </c>
@@ -5324,35 +4403,27 @@
         <v>13747.5</v>
       </c>
       <c r="C146">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>52.100000000000364</v>
       </c>
       <c r="D146">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E146">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>11.928207831525695</v>
       </c>
       <c r="F146">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>11.052696300432114</v>
       </c>
       <c r="G146">
-        <f t="shared" si="16"/>
-        <v>1.0792124842025517</v>
-      </c>
-      <c r="H146">
-        <f t="shared" si="17"/>
+        <f>(100 * E146) / (E146 + F146)</f>
         <v>51.904867463147532</v>
       </c>
-      <c r="I146">
-        <f t="shared" si="18"/>
-        <v>51.904867463147532</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1515677880</v>
       </c>
@@ -5360,35 +4431,27 @@
         <v>13701.7</v>
       </c>
       <c r="C147">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D147">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>45.799999999999272</v>
       </c>
       <c r="E147">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>11.076192986416716</v>
       </c>
       <c r="F147">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>13.534646564686911</v>
       </c>
       <c r="G147">
-        <f t="shared" si="16"/>
-        <v>0.81835849451107812</v>
-      </c>
-      <c r="H147">
-        <f t="shared" si="17"/>
+        <f>(100 * E147) / (E147 + F147)</f>
         <v>45.005343939678909</v>
       </c>
-      <c r="I147">
-        <f t="shared" si="18"/>
-        <v>45.005343939678909</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1515677940</v>
       </c>
@@ -5396,35 +4459,27 @@
         <v>13726.1</v>
       </c>
       <c r="C148">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>24.399999999999636</v>
       </c>
       <c r="D148">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E148">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>12.027893487386924</v>
       </c>
       <c r="F148">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>12.567886095780704</v>
       </c>
       <c r="G148">
-        <f t="shared" si="16"/>
-        <v>0.95703393519972579</v>
-      </c>
-      <c r="H148">
-        <f t="shared" si="17"/>
+        <f>(100 * E148) / (E148 + F148)</f>
         <v>48.902265718864783</v>
       </c>
-      <c r="I148">
-        <f t="shared" si="18"/>
-        <v>48.902265718864776</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1515678000</v>
       </c>
@@ -5432,35 +4487,27 @@
         <v>13747.4</v>
       </c>
       <c r="C149">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>21.299999999999272</v>
       </c>
       <c r="D149">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E149">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>12.690186809716378</v>
       </c>
       <c r="F149">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>11.670179946082083</v>
       </c>
       <c r="G149">
-        <f t="shared" si="16"/>
-        <v>1.0874028394032376</v>
-      </c>
-      <c r="H149">
-        <f t="shared" si="17"/>
+        <f>(100 * E149) / (E149 + F149)</f>
         <v>52.093578626831444</v>
       </c>
-      <c r="I149">
-        <f t="shared" si="18"/>
-        <v>52.093578626831437</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1515678060</v>
       </c>
@@ -5468,35 +4515,27 @@
         <v>13723.3</v>
       </c>
       <c r="C150">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D150">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>24.100000000000364</v>
       </c>
       <c r="E150">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>11.783744894736637</v>
       </c>
       <c r="F150">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>12.558024235647675</v>
       </c>
       <c r="G150">
-        <f t="shared" si="16"/>
-        <v>0.9383438567738116</v>
-      </c>
-      <c r="H150">
-        <f t="shared" si="17"/>
+        <f>(100 * E150) / (E150 + F150)</f>
         <v>48.409566419014809</v>
       </c>
-      <c r="I150">
-        <f t="shared" si="18"/>
-        <v>48.409566419014809</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1515678120</v>
       </c>
@@ -5504,35 +4543,27 @@
         <v>13781.6</v>
       </c>
       <c r="C151">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>58.300000000001091</v>
       </c>
       <c r="D151">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E151">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>15.10633454511267</v>
       </c>
       <c r="F151">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>11.661022504529983</v>
       </c>
       <c r="G151">
-        <f t="shared" si="16"/>
-        <v>1.2954553976072234</v>
-      </c>
-      <c r="H151">
-        <f t="shared" si="17"/>
+        <f>(100 * E151) / (E151 + F151)</f>
         <v>56.435659736956886</v>
       </c>
-      <c r="I151">
-        <f t="shared" si="18"/>
-        <v>56.435659736956886</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1515678180</v>
       </c>
@@ -5540,35 +4571,27 @@
         <v>13796.9</v>
       </c>
       <c r="C152">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>15.299999999999272</v>
       </c>
       <c r="D152">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E152">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>15.120167791890283</v>
       </c>
       <c r="F152">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>10.828092325634984</v>
       </c>
       <c r="G152">
-        <f t="shared" si="16"/>
-        <v>1.3963833459467296</v>
-      </c>
-      <c r="H152">
-        <f t="shared" si="17"/>
+        <f>(100 * E152) / (E152 + F152)</f>
         <v>58.270449438258218</v>
       </c>
-      <c r="I152">
-        <f t="shared" si="18"/>
-        <v>58.270449438258218</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1515678240</v>
       </c>
@@ -5576,35 +4599,27 @@
         <v>13796.9</v>
       </c>
       <c r="C153">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D153">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E153">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>14.040155806755264</v>
       </c>
       <c r="F153">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>10.0546571595182</v>
       </c>
       <c r="G153">
-        <f t="shared" si="16"/>
-        <v>1.3963833459467296</v>
-      </c>
-      <c r="H153">
-        <f t="shared" si="17"/>
+        <f>(100 * E153) / (E153 + F153)</f>
         <v>58.270449438258211</v>
       </c>
-      <c r="I153">
-        <f t="shared" si="18"/>
-        <v>58.270449438258218</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1515678300</v>
       </c>
@@ -5612,35 +4627,27 @@
         <v>13783.3</v>
       </c>
       <c r="C154">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D154">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>13.600000000000364</v>
       </c>
       <c r="E154">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>13.037287534844173</v>
       </c>
       <c r="F154">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>10.307895933838354</v>
       </c>
       <c r="G154">
-        <f t="shared" si="16"/>
-        <v>1.2647864916879767</v>
-      </c>
-      <c r="H154">
-        <f t="shared" si="17"/>
+        <f>(100 * E154) / (E154 + F154)</f>
         <v>55.845727459514912</v>
       </c>
-      <c r="I154">
-        <f t="shared" si="18"/>
-        <v>55.845727459514904</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1515678360</v>
       </c>
@@ -5648,35 +4655,27 @@
         <v>13727.6</v>
       </c>
       <c r="C155">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D155">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>55.699999999998909</v>
       </c>
       <c r="E155">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>12.106052710926733</v>
       </c>
       <c r="F155">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>13.550189081421252</v>
       </c>
       <c r="G155">
-        <f t="shared" si="16"/>
-        <v>0.89342315728460331</v>
-      </c>
-      <c r="H155">
-        <f t="shared" si="17"/>
+        <f>(100 * E155) / (E155 + F155)</f>
         <v>47.185604224143937</v>
       </c>
-      <c r="I155">
-        <f t="shared" si="18"/>
-        <v>47.185604224143944</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1515678420</v>
       </c>
@@ -5684,35 +4683,27 @@
         <v>13739.1</v>
       </c>
       <c r="C156">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>11.5</v>
       </c>
       <c r="D156">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E156">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>12.062763231574824</v>
       </c>
       <c r="F156">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>12.582318432748306</v>
       </c>
       <c r="G156">
-        <f t="shared" si="16"/>
-        <v>0.95870751452123304</v>
-      </c>
-      <c r="H156">
-        <f t="shared" si="17"/>
+        <f>(100 * E156) / (E156 + F156)</f>
         <v>48.945925178398575</v>
       </c>
-      <c r="I156">
-        <f t="shared" si="18"/>
-        <v>48.945925178398575</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1515678480</v>
       </c>
@@ -5720,35 +4711,27 @@
         <v>13720.4</v>
       </c>
       <c r="C157">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D157">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>18.700000000000728</v>
       </c>
       <c r="E157">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>11.201137286462338</v>
       </c>
       <c r="F157">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>13.019295687552049</v>
       </c>
       <c r="G157">
-        <f t="shared" si="16"/>
-        <v>0.86034894323599387</v>
-      </c>
-      <c r="H157">
-        <f t="shared" si="17"/>
+        <f>(100 * E157) / (E157 + F157)</f>
         <v>46.246643478586087</v>
       </c>
-      <c r="I157">
-        <f t="shared" si="18"/>
-        <v>46.24664347858608</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1515678540</v>
       </c>
@@ -5756,35 +4739,27 @@
         <v>13714.5</v>
       </c>
       <c r="C158">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D158">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>5.8999999999996362</v>
       </c>
       <c r="E158">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>10.401056051715027</v>
       </c>
       <c r="F158">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>12.510774567012591</v>
       </c>
       <c r="G158">
-        <f t="shared" si="16"/>
-        <v>0.83136787382770838</v>
-      </c>
-      <c r="H158">
-        <f t="shared" si="17"/>
+        <f>(100 * E158) / (E158 + F158)</f>
         <v>45.396006215293141</v>
       </c>
-      <c r="I158">
-        <f t="shared" si="18"/>
-        <v>45.396006215293141</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1515678600</v>
       </c>
@@ -5792,35 +4767,27 @@
         <v>13696.3</v>
       </c>
       <c r="C159">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D159">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>18.200000000000728</v>
       </c>
       <c r="E159">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>9.6581234765925252</v>
       </c>
       <c r="F159">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>12.91714781222603</v>
       </c>
       <c r="G159">
-        <f t="shared" si="16"/>
-        <v>0.747697836781828</v>
-      </c>
-      <c r="H159">
-        <f t="shared" si="17"/>
+        <f>(100 * E159) / (E159 + F159)</f>
         <v>42.781871159068444</v>
       </c>
-      <c r="I159">
-        <f t="shared" si="18"/>
-        <v>42.781871159068444</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1515678660</v>
       </c>
@@ -5828,35 +4795,27 @@
         <v>13747.1</v>
       </c>
       <c r="C160">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>50.800000000001091</v>
       </c>
       <c r="D160">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E160">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>12.596828942550278</v>
       </c>
       <c r="F160">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>11.994494397067028</v>
       </c>
       <c r="G160">
-        <f t="shared" si="16"/>
-        <v>1.0502175852973459</v>
-      </c>
-      <c r="H160">
-        <f t="shared" si="17"/>
+        <f>(100 * E160) / (E160 + F160)</f>
         <v>51.224689166102898</v>
       </c>
-      <c r="I160">
-        <f t="shared" si="18"/>
-        <v>51.224689166102891</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1515678720</v>
       </c>
@@ -5864,35 +4823,27 @@
         <v>13776.9</v>
       </c>
       <c r="C161">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>29.799999999999272</v>
       </c>
       <c r="D161">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E161">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>13.825626875225208</v>
       </c>
       <c r="F161">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>11.137744797276525</v>
       </c>
       <c r="G161">
-        <f t="shared" si="16"/>
-        <v>1.2413309091626827</v>
-      </c>
-      <c r="H161">
-        <f t="shared" si="17"/>
+        <f>(100 * E161) / (E161 + F161)</f>
         <v>55.383651922527562</v>
       </c>
-      <c r="I161">
-        <f t="shared" si="18"/>
-        <v>55.383651922527562</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1515678780</v>
       </c>
@@ -5900,35 +4851,27 @@
         <v>13783.7</v>
       </c>
       <c r="C162">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>6.8000000000010914</v>
       </c>
       <c r="D162">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E162">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>13.32379638413777</v>
       </c>
       <c r="F162">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>10.342191597471059</v>
       </c>
       <c r="G162">
-        <f t="shared" si="16"/>
-        <v>1.2882952572060058</v>
-      </c>
-      <c r="H162">
-        <f t="shared" si="17"/>
+        <f>(100 * E162) / (E162 + F162)</f>
         <v>56.299345687540615</v>
       </c>
-      <c r="I162">
-        <f t="shared" si="18"/>
-        <v>56.299345687540608</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1515678840</v>
       </c>
@@ -5936,35 +4879,27 @@
         <v>13763.1</v>
       </c>
       <c r="C163">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D163">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>20.600000000000364</v>
       </c>
       <c r="E163">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>12.372096642413643</v>
       </c>
       <c r="F163">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>11.074892197651723</v>
       </c>
       <c r="G163">
-        <f t="shared" si="16"/>
-        <v>1.1171302096319253</v>
-      </c>
-      <c r="H163">
-        <f t="shared" si="17"/>
+        <f>(100 * E163) / (E163 + F163)</f>
         <v>52.766249546179054</v>
       </c>
-      <c r="I163">
-        <f t="shared" si="18"/>
-        <v>52.766249546179054</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1515678900</v>
       </c>
@@ -5972,35 +4907,27 @@
         <v>13756.1</v>
       </c>
       <c r="C164">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D164">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="E164">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>11.488375453669812</v>
       </c>
       <c r="F164">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>10.783828469248027</v>
       </c>
       <c r="G164">
-        <f t="shared" si="16"/>
-        <v>1.0653336601589058</v>
-      </c>
-      <c r="H164">
-        <f t="shared" si="17"/>
+        <f>(100 * E164) / (E164 + F164)</f>
         <v>51.581673252589106</v>
       </c>
-      <c r="I164">
-        <f t="shared" si="18"/>
-        <v>51.581673252589106</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1515678960</v>
       </c>
@@ -6008,35 +4935,27 @@
         <v>13739.7</v>
       </c>
       <c r="C165">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D165">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>16.399999999999636</v>
       </c>
       <c r="E165">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>10.667777206979112</v>
       </c>
       <c r="F165">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>11.184983578587426</v>
       </c>
       <c r="G165">
-        <f t="shared" si="16"/>
-        <v>0.95375886178335967</v>
-      </c>
-      <c r="H165">
-        <f t="shared" si="17"/>
+        <f>(100 * E165) / (E165 + F165)</f>
         <v>48.816610915473156</v>
       </c>
-      <c r="I165">
-        <f t="shared" si="18"/>
-        <v>48.816610915473156</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1515679020</v>
       </c>
@@ -6044,35 +4963,27 @@
         <v>13747.2</v>
       </c>
       <c r="C166">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>7.5</v>
       </c>
       <c r="D166">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E166">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>10.441507406480605</v>
       </c>
       <c r="F166">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>10.386056180116896</v>
       </c>
       <c r="G166">
-        <f t="shared" si="16"/>
-        <v>1.005339006972624</v>
-      </c>
-      <c r="H166">
-        <f t="shared" si="17"/>
+        <f>(100 * E166) / (E166 + F166)</f>
         <v>50.133119810517329</v>
       </c>
-      <c r="I166">
-        <f t="shared" si="18"/>
-        <v>50.133119810517329</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1515679080</v>
       </c>
@@ -6080,35 +4991,27 @@
         <v>13766.8</v>
       </c>
       <c r="C167">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>19.599999999998545</v>
       </c>
       <c r="D167">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E167">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>11.095685448874745</v>
       </c>
       <c r="F167">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>9.6441950243942607</v>
       </c>
       <c r="G167">
-        <f t="shared" si="16"/>
-        <v>1.1505040514847584</v>
-      </c>
-      <c r="H167">
-        <f t="shared" si="17"/>
+        <f>(100 * E167) / (E167 + F167)</f>
         <v>53.499273841889462</v>
       </c>
-      <c r="I167">
-        <f t="shared" si="18"/>
-        <v>53.499273841889462</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1515679140</v>
       </c>
@@ -6116,35 +5019,27 @@
         <v>13784.2</v>
       </c>
       <c r="C168">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>17.400000000001455</v>
       </c>
       <c r="D168">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E168">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>11.545993631098082</v>
       </c>
       <c r="F168">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>8.9553239512232423</v>
       </c>
       <c r="G168">
-        <f t="shared" si="16"/>
-        <v>1.289288214919458</v>
-      </c>
-      <c r="H168">
-        <f t="shared" si="17"/>
+        <f>(100 * E168) / (E168 + F168)</f>
         <v>56.318300444525626</v>
       </c>
-      <c r="I168">
-        <f t="shared" si="18"/>
-        <v>56.318300444525633</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1515679200</v>
       </c>
@@ -6152,35 +5047,27 @@
         <v>13785.8</v>
       </c>
       <c r="C169">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>1.5999999999985448</v>
       </c>
       <c r="D169">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E169">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>10.835565514590972</v>
       </c>
       <c r="F169">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>8.3156579547072962</v>
       </c>
       <c r="G169">
-        <f t="shared" si="16"/>
-        <v>1.3030316510862758</v>
-      </c>
-      <c r="H169">
-        <f t="shared" si="17"/>
+        <f>(100 * E169) / (E169 + F169)</f>
         <v>56.578972784489181</v>
       </c>
-      <c r="I169">
-        <f t="shared" si="18"/>
-        <v>56.578972784489181</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1515679260</v>
       </c>
@@ -6188,35 +5075,27 @@
         <v>13794.3</v>
       </c>
       <c r="C170">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>8.5</v>
       </c>
       <c r="D170">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E170">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>10.668739406405903</v>
       </c>
       <c r="F170">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>7.7216823865139181</v>
       </c>
       <c r="G170">
-        <f t="shared" si="16"/>
-        <v>1.381659963771507</v>
-      </c>
-      <c r="H170">
-        <f t="shared" si="17"/>
+        <f>(100 * E170) / (E170 + F170)</f>
         <v>58.012478052642003</v>
       </c>
-      <c r="I170">
-        <f t="shared" si="18"/>
-        <v>58.012478052642003</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1515679320</v>
       </c>
@@ -6224,35 +5103,27 @@
         <v>13782.9</v>
       </c>
       <c r="C171">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D171">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>11.399999999999636</v>
       </c>
       <c r="E171">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>9.9066865916626234</v>
       </c>
       <c r="F171">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>7.9844193589057548</v>
       </c>
       <c r="G171">
-        <f t="shared" si="16"/>
-        <v>1.2407522884695164</v>
-      </c>
-      <c r="H171">
-        <f t="shared" si="17"/>
+        <f>(100 * E171) / (E171 + F171)</f>
         <v>55.372130817591525</v>
       </c>
-      <c r="I171">
-        <f t="shared" si="18"/>
-        <v>55.372130817591525</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1515679380</v>
       </c>
@@ -6260,35 +5131,27 @@
         <v>13766.8</v>
       </c>
       <c r="C172">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D172">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>16.100000000000364</v>
       </c>
       <c r="E172">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>9.1990661208295794</v>
       </c>
       <c r="F172">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>8.5641036904125123</v>
       </c>
       <c r="G172">
-        <f t="shared" si="16"/>
-        <v>1.074142309968515</v>
-      </c>
-      <c r="H172">
-        <f t="shared" si="17"/>
+        <f>(100 * E172) / (E172 + F172)</f>
         <v>51.787300456969135</v>
       </c>
-      <c r="I172">
-        <f t="shared" si="18"/>
-        <v>51.787300456969135</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1515679440</v>
       </c>
@@ -6296,35 +5159,27 @@
         <v>13790.9</v>
       </c>
       <c r="C173">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>24.100000000000364</v>
       </c>
       <c r="D173">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E173">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>10.263418540770349</v>
       </c>
       <c r="F173">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>7.95238199824019</v>
       </c>
       <c r="G173">
-        <f t="shared" si="16"/>
-        <v>1.2906093473680686</v>
-      </c>
-      <c r="H173">
-        <f t="shared" si="17"/>
+        <f>(100 * E173) / (E173 + F173)</f>
         <v>56.34349431303032</v>
       </c>
-      <c r="I173">
-        <f t="shared" si="18"/>
-        <v>56.343494313030313</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1515679500</v>
       </c>
@@ -6332,35 +5187,27 @@
         <v>13790.9</v>
       </c>
       <c r="C174">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D174">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E174">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>9.5303172164296104</v>
       </c>
       <c r="F174">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>7.3843547126516054</v>
       </c>
       <c r="G174">
-        <f t="shared" si="16"/>
-        <v>1.2906093473680686</v>
-      </c>
-      <c r="H174">
-        <f t="shared" si="17"/>
+        <f>(100 * E174) / (E174 + F174)</f>
         <v>56.34349431303032</v>
       </c>
-      <c r="I174">
-        <f t="shared" si="18"/>
-        <v>56.343494313030313</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1515679560</v>
       </c>
@@ -6368,35 +5215,27 @@
         <v>13791.4</v>
       </c>
       <c r="C175">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="D175">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E175">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>8.8852945581132108</v>
       </c>
       <c r="F175">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>6.8569008046050621</v>
       </c>
       <c r="G175">
-        <f t="shared" si="16"/>
-        <v>1.295817864558561</v>
-      </c>
-      <c r="H175">
-        <f t="shared" si="17"/>
+        <f>(100 * E175) / (E175 + F175)</f>
         <v>56.442537736229369</v>
       </c>
-      <c r="I175">
-        <f t="shared" si="18"/>
-        <v>56.442537736229369</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1515679620</v>
       </c>
@@ -6404,35 +5243,27 @@
         <v>13813.4</v>
       </c>
       <c r="C176">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="D176">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E176">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>9.8220592325336948</v>
       </c>
       <c r="F176">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>6.3671221757047007</v>
       </c>
       <c r="G176">
-        <f t="shared" si="16"/>
-        <v>1.5426214483541945</v>
-      </c>
-      <c r="H176">
-        <f t="shared" si="17"/>
+        <f>(100 * E176) / (E176 + F176)</f>
         <v>60.670511898368233</v>
       </c>
-      <c r="I176">
-        <f t="shared" si="18"/>
-        <v>60.67051189836824</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1515679680</v>
       </c>
@@ -6440,35 +5271,27 @@
         <v>13813.4</v>
       </c>
       <c r="C177">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D177">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E177">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>9.120483573067002</v>
       </c>
       <c r="F177">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>5.912327734582937</v>
       </c>
       <c r="G177">
-        <f t="shared" si="16"/>
-        <v>1.5426214483541942</v>
-      </c>
-      <c r="H177">
-        <f t="shared" si="17"/>
+        <f>(100 * E177) / (E177 + F177)</f>
         <v>60.670511898368233</v>
       </c>
-      <c r="I177">
-        <f t="shared" si="18"/>
-        <v>60.67051189836824</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1515679740</v>
       </c>
@@ -6476,35 +5299,27 @@
         <v>13813.5</v>
       </c>
       <c r="C178">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.1000000000003638</v>
       </c>
       <c r="D178">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E178">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>8.4761633178479574</v>
       </c>
       <c r="F178">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>5.4900186106841558</v>
       </c>
       <c r="G178">
-        <f t="shared" si="16"/>
-        <v>1.5439225108185333</v>
-      </c>
-      <c r="H178">
-        <f t="shared" si="17"/>
+        <f>(100 * E178) / (E178 + F178)</f>
         <v>60.690626552212095</v>
       </c>
-      <c r="I178">
-        <f t="shared" si="18"/>
-        <v>60.690626552212095</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1515679800</v>
       </c>
@@ -6512,35 +5327,27 @@
         <v>13806.8</v>
       </c>
       <c r="C179">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D179">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>6.7000000000007276</v>
       </c>
       <c r="E179">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>7.8707230808588173</v>
       </c>
       <c r="F179">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>5.576445852778197</v>
       </c>
       <c r="G179">
-        <f t="shared" si="16"/>
-        <v>1.4114228468546155</v>
-      </c>
-      <c r="H179">
-        <f t="shared" si="17"/>
+        <f>(100 * E179) / (E179 + F179)</f>
         <v>58.530707241810845</v>
       </c>
-      <c r="I179">
-        <f t="shared" si="18"/>
-        <v>58.530707241810845</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1515679860</v>
       </c>
@@ -6548,35 +5355,27 @@
         <v>13867.6</v>
       </c>
       <c r="C180">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>60.800000000001091</v>
       </c>
       <c r="D180">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E180">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>11.651385717940409</v>
       </c>
       <c r="F180">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>5.1781282918654687</v>
       </c>
       <c r="G180">
-        <f t="shared" si="16"/>
-        <v>2.2501153044516187</v>
-      </c>
-      <c r="H180">
-        <f t="shared" si="17"/>
+        <f>(100 * E180) / (E180 + F180)</f>
         <v>69.231860831819731</v>
       </c>
-      <c r="I180">
-        <f t="shared" si="18"/>
-        <v>69.231860831819731</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1515679920</v>
       </c>
@@ -6584,35 +5383,27 @@
         <v>13839.9</v>
       </c>
       <c r="C181">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D181">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>27.700000000000728</v>
       </c>
       <c r="E181">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>10.819143880944665</v>
       </c>
       <c r="F181">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>6.7868334138751303</v>
       </c>
       <c r="G181">
-        <f t="shared" si="16"/>
-        <v>1.5941372391468758</v>
-      </c>
-      <c r="H181">
-        <f t="shared" si="17"/>
+        <f>(100 * E181) / (E181 + F181)</f>
         <v>61.451538303005663</v>
       </c>
-      <c r="I181">
-        <f t="shared" si="18"/>
-        <v>61.451538303005648</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1515679980</v>
       </c>
@@ -6620,35 +5411,27 @@
         <v>13829.9</v>
       </c>
       <c r="C182">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D182">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="E182">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>10.046347889448617</v>
       </c>
       <c r="F182">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>7.0163453128840496</v>
       </c>
       <c r="G182">
-        <f t="shared" si="16"/>
-        <v>1.4318491239307451</v>
-      </c>
-      <c r="H182">
-        <f t="shared" si="17"/>
+        <f>(100 * E182) / (E182 + F182)</f>
         <v>58.879027890363552</v>
       </c>
-      <c r="I182">
-        <f t="shared" si="18"/>
-        <v>58.87902789036356</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1515680040</v>
       </c>
@@ -6656,35 +5439,27 @@
         <v>13816.8</v>
       </c>
       <c r="C183">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D183">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>13.100000000000364</v>
       </c>
       <c r="E183">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>9.3287516116308584</v>
       </c>
       <c r="F183">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>7.4508920762495006</v>
       </c>
       <c r="G183">
-        <f t="shared" si="16"/>
-        <v>1.2520315039010204</v>
-      </c>
-      <c r="H183">
-        <f t="shared" si="17"/>
+        <f>(100 * E183) / (E183 + F183)</f>
         <v>55.595647828736979</v>
       </c>
-      <c r="I183">
-        <f t="shared" si="18"/>
-        <v>55.595647828736972</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1515680100</v>
       </c>
@@ -6692,35 +5467,27 @@
         <v>13793.4</v>
       </c>
       <c r="C184">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D184">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>23.399999999999636</v>
       </c>
       <c r="E184">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>8.6624122108000829</v>
       </c>
       <c r="F184">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>8.5901140708030805</v>
       </c>
       <c r="G184">
-        <f t="shared" si="16"/>
-        <v>1.0084164353815437</v>
-      </c>
-      <c r="H184">
-        <f t="shared" si="17"/>
+        <f>(100 * E184) / (E184 + F184)</f>
         <v>50.20952914030363</v>
       </c>
-      <c r="I184">
-        <f t="shared" si="18"/>
-        <v>50.209529140303637</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1515680160</v>
       </c>
@@ -6728,35 +5495,27 @@
         <v>13756</v>
       </c>
       <c r="C185">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D185">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>37.399999999999636</v>
       </c>
       <c r="E185">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>8.0436684814572192</v>
       </c>
       <c r="F185">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>10.647963065745691</v>
       </c>
       <c r="G185">
-        <f t="shared" si="16"/>
-        <v>0.75541851824538708</v>
-      </c>
-      <c r="H185">
-        <f t="shared" si="17"/>
+        <f>(100 * E185) / (E185 + F185)</f>
         <v>43.033527924751475</v>
       </c>
-      <c r="I185">
-        <f t="shared" si="18"/>
-        <v>43.033527924751468</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1515680220</v>
       </c>
@@ -6764,35 +5523,27 @@
         <v>13710.3</v>
       </c>
       <c r="C186">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D186">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>45.700000000000728</v>
       </c>
       <c r="E186">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>7.469120732781704</v>
       </c>
       <c r="F186">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>13.15167998962105</v>
       </c>
       <c r="G186">
-        <f t="shared" si="16"/>
-        <v>0.56792141678296093</v>
-      </c>
-      <c r="H186">
-        <f t="shared" si="17"/>
+        <f>(100 * E186) / (E186 + F186)</f>
         <v>36.221293408199884</v>
       </c>
-      <c r="I186">
-        <f t="shared" si="18"/>
-        <v>36.221293408199891</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1515680280</v>
       </c>
@@ -6800,35 +5551,27 @@
         <v>13689.9</v>
       </c>
       <c r="C187">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D187">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>20.399999999999636</v>
       </c>
       <c r="E187">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>6.9356121090115819</v>
       </c>
       <c r="F187">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>13.66941713321952</v>
       </c>
       <c r="G187">
-        <f t="shared" si="16"/>
-        <v>0.50738170043524422</v>
-      </c>
-      <c r="H187">
-        <f t="shared" si="17"/>
+        <f>(100 * E187) / (E187 + F187)</f>
         <v>33.659802310771184</v>
       </c>
-      <c r="I187">
-        <f t="shared" si="18"/>
-        <v>33.65980231077117</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1515680340</v>
       </c>
@@ -6836,35 +5579,27 @@
         <v>13733.8</v>
       </c>
       <c r="C188">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>43.899999999999636</v>
       </c>
       <c r="D188">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E188">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>9.5759255297964412</v>
       </c>
       <c r="F188">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>12.693030195132412</v>
       </c>
       <c r="G188">
-        <f t="shared" si="16"/>
-        <v>0.75442391474564252</v>
-      </c>
-      <c r="H188">
-        <f t="shared" si="17"/>
+        <f>(100 * E188) / (E188 + F188)</f>
         <v>43.001232963415198</v>
       </c>
-      <c r="I188">
-        <f t="shared" si="18"/>
-        <v>43.001232963415191</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1515680400</v>
       </c>
@@ -6872,35 +5607,27 @@
         <v>13727.1</v>
       </c>
       <c r="C189">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D189">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>6.6999999999989086</v>
       </c>
       <c r="E189">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>8.8919308490966955</v>
       </c>
       <c r="F189">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>12.264956609765733</v>
       </c>
       <c r="G189">
-        <f t="shared" si="16"/>
-        <v>0.72498673513583156</v>
-      </c>
-      <c r="H189">
-        <f t="shared" si="17"/>
+        <f>(100 * E189) / (E189 + F189)</f>
         <v>42.028539719683323</v>
       </c>
-      <c r="I189">
-        <f t="shared" si="18"/>
-        <v>42.02853971968333</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1515680460</v>
       </c>
@@ -6908,35 +5635,27 @@
         <v>13683.5</v>
       </c>
       <c r="C190">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D190">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>43.600000000000364</v>
       </c>
       <c r="E190">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>8.2567929313040747</v>
       </c>
       <c r="F190">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>14.503173994782491</v>
       </c>
       <c r="G190">
-        <f t="shared" si="16"/>
-        <v>0.56930937560801875</v>
-      </c>
-      <c r="H190">
-        <f t="shared" si="17"/>
+        <f>(100 * E190) / (E190 + F190)</f>
         <v>36.277701800350457</v>
       </c>
-      <c r="I190">
-        <f t="shared" si="18"/>
-        <v>36.277701800350457</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1515680520</v>
       </c>
@@ -6944,35 +5663,27 @@
         <v>13721.6</v>
       </c>
       <c r="C191">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>38.100000000000364</v>
       </c>
       <c r="D191">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E191">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>10.388450579068095</v>
       </c>
       <c r="F191">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>13.46723299515517</v>
       </c>
       <c r="G191">
-        <f t="shared" si="16"/>
-        <v>0.77138715746622455</v>
-      </c>
-      <c r="H191">
-        <f t="shared" si="17"/>
+        <f>(100 * E191) / (E191 + F191)</f>
         <v>43.547067292144625</v>
       </c>
-      <c r="I191">
-        <f t="shared" si="18"/>
-        <v>43.547067292144618</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1515680580</v>
       </c>
@@ -6980,35 +5691,27 @@
         <v>13720.8</v>
       </c>
       <c r="C192">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D192">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0.80000000000109139</v>
       </c>
       <c r="E192">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>9.646418394848947</v>
       </c>
       <c r="F192">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>12.56243063835845</v>
       </c>
       <c r="G192">
-        <f t="shared" si="16"/>
-        <v>0.7678783407881532</v>
-      </c>
-      <c r="H192">
-        <f t="shared" si="17"/>
+        <f>(100 * E192) / (E192 + F192)</f>
         <v>43.43502169079229</v>
       </c>
-      <c r="I192">
-        <f t="shared" si="18"/>
-        <v>43.435021690792297</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1515680640</v>
       </c>
@@ -7016,35 +5719,27 @@
         <v>13729.6</v>
       </c>
       <c r="C193">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>8.8000000000010914</v>
       </c>
       <c r="D193">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E193">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>9.585959938074101</v>
       </c>
       <c r="F193">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>11.665114164189989</v>
       </c>
       <c r="G193">
-        <f t="shared" si="16"/>
-        <v>0.82176306233688179</v>
-      </c>
-      <c r="H193">
-        <f t="shared" si="17"/>
+        <f>(100 * E193) / (E193 + F193)</f>
         <v>45.10811967406773</v>
       </c>
-      <c r="I193">
-        <f t="shared" si="18"/>
-        <v>45.10811967406773</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1515680700</v>
       </c>
@@ -7052,35 +5747,27 @@
         <v>13729.5</v>
       </c>
       <c r="C194">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D194">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0.1000000000003638</v>
       </c>
       <c r="E194">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>8.9012485139259514</v>
       </c>
       <c r="F194">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>10.839034581033587</v>
       </c>
       <c r="G194">
-        <f t="shared" si="16"/>
-        <v>0.8212215255315799</v>
-      </c>
-      <c r="H194">
-        <f t="shared" si="17"/>
+        <f>(100 * E194) / (E194 + F194)</f>
         <v>45.091797676390904</v>
       </c>
-      <c r="I194">
-        <f t="shared" si="18"/>
-        <v>45.091797676390904</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1515680760</v>
       </c>
@@ -7088,35 +5775,27 @@
         <v>13731.3</v>
       </c>
       <c r="C195">
-        <f t="shared" ref="C195:C200" si="21">IF(B195&gt;B194,B195-B194,0)</f>
+        <f t="shared" ref="C195:C200" si="12">IF(B195&gt;B194,B195-B194,0)</f>
         <v>1.7999999999992724</v>
       </c>
       <c r="D195">
-        <f t="shared" ref="D195:D200" si="22">IF(B195&lt;B194,B194-B195,0)</f>
+        <f t="shared" ref="D195:D200" si="13">IF(B195&lt;B194,B194-B195,0)</f>
         <v>0</v>
       </c>
       <c r="E195">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>8.394016477216903</v>
       </c>
       <c r="F195">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>10.064817825245473</v>
       </c>
       <c r="G195">
-        <f t="shared" si="16"/>
-        <v>0.8339958678797228</v>
-      </c>
-      <c r="H195">
-        <f t="shared" si="17"/>
+        <f>(100 * E195) / (E195 + F195)</f>
         <v>45.474250105258029</v>
       </c>
-      <c r="I195">
-        <f t="shared" si="18"/>
-        <v>45.474250105258029</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1515680820</v>
       </c>
@@ -7124,35 +5803,27 @@
         <v>13770.4</v>
       </c>
       <c r="C196">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>39.100000000000364</v>
       </c>
       <c r="D196">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E196">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>10.587301014558578</v>
       </c>
       <c r="F196">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>9.3459022662993672</v>
       </c>
       <c r="G196">
-        <f t="shared" si="16"/>
-        <v>1.1328281328958043</v>
-      </c>
-      <c r="H196">
-        <f t="shared" si="17"/>
+        <f>(100 * E196) / (E196 + F196)</f>
         <v>53.113896775064099</v>
       </c>
-      <c r="I196">
-        <f t="shared" si="18"/>
-        <v>53.113896775064099</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1515680880</v>
       </c>
@@ -7160,35 +5831,27 @@
         <v>13770.5</v>
       </c>
       <c r="C197">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>0.1000000000003638</v>
       </c>
       <c r="D197">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E197">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>9.8382080849472775</v>
       </c>
       <c r="F197">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>8.6783378187065559</v>
       </c>
       <c r="G197">
-        <f t="shared" si="16"/>
-        <v>1.1336512003186334</v>
-      </c>
-      <c r="H197">
-        <f t="shared" si="17"/>
+        <f>(100 * E197) / (E197 + F197)</f>
         <v>53.131983341482297</v>
       </c>
-      <c r="I197">
-        <f t="shared" si="18"/>
-        <v>53.131983341482297</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1515680940</v>
       </c>
@@ -7196,35 +5859,27 @@
         <v>13727.9</v>
       </c>
       <c r="C198">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="D198">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>42.600000000000364</v>
       </c>
       <c r="E198">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>9.1354789360224711</v>
       </c>
       <c r="F198">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>11.101313688798971</v>
       </c>
       <c r="G198">
-        <f t="shared" si="16"/>
-        <v>0.82291872764932383</v>
-      </c>
-      <c r="H198">
-        <f t="shared" si="17"/>
+        <f>(100 * E198) / (E198 + F198)</f>
         <v>45.14291916406431</v>
       </c>
-      <c r="I198">
-        <f t="shared" si="18"/>
-        <v>45.14291916406431</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1515681000</v>
       </c>
@@ -7232,35 +5887,27 @@
         <v>13705.1</v>
       </c>
       <c r="C199">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="D199">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>22.799999999999272</v>
       </c>
       <c r="E199">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>8.4829447263065809</v>
       </c>
       <c r="F199">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>11.936934139598993</v>
       </c>
       <c r="G199">
-        <f t="shared" si="16"/>
-        <v>0.71064685681440443</v>
-      </c>
-      <c r="H199">
-        <f t="shared" si="17"/>
+        <f>(100 * E199) / (E199 + F199)</f>
         <v>41.542581040822363</v>
       </c>
-      <c r="I199">
-        <f t="shared" si="18"/>
-        <v>41.542581040822363</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1515681060</v>
       </c>
@@ -7268,31 +5915,23 @@
         <v>13770.5</v>
       </c>
       <c r="C200">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>65.399999999999636</v>
       </c>
       <c r="D200">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E200">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>12.548448674427513</v>
       </c>
       <c r="F200">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>11.084295986770494</v>
       </c>
       <c r="G200">
-        <f t="shared" si="16"/>
-        <v>1.1320925288718868</v>
-      </c>
-      <c r="H200">
-        <f t="shared" si="17"/>
-        <v>53.097720363519549</v>
-      </c>
-      <c r="I200">
-        <f t="shared" si="18"/>
+        <f>(100 * E200) / (E200 + F200)</f>
         <v>53.097720363519549</v>
       </c>
     </row>
